--- a/本地版/角色曲列表.xlsx
+++ b/本地版/角色曲列表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\东方\音乐\原曲\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\本地版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6F98BE-853B-4810-95F6-CC2EEA09C61D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7B985C-153C-4E1F-A5B3-F80DCC1E5F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,25 +16,19 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$252</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$239</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="669">
   <si>
     <t>作品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,901 +290,874 @@
     <t>永遠の春夢</t>
   </si>
   <si>
+    <t>幻想乡的二岩</t>
+  </si>
+  <si>
+    <t>幻想郷の二ッ岩</t>
+  </si>
+  <si>
+    <t>二岩猯藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰聪耳神子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈德曼的妖怪少女</t>
+  </si>
+  <si>
+    <t>ハルトマンの妖怪少女</t>
+  </si>
+  <si>
+    <t>古明地恋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河城荷取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡失的情感</t>
+  </si>
+  <si>
+    <t>亡失のエモーション</t>
+  </si>
+  <si>
+    <t>秦心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少名针妙丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣白莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月まで届け、不死の煙</t>
+  </si>
+  <si>
+    <t>藤原妹红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大神神话传</t>
+  </si>
+  <si>
+    <t>大神神話伝</t>
+  </si>
+  <si>
+    <t>物部布都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋色Master spark</t>
+  </si>
+  <si>
+    <t>恋色マスタースパーク</t>
+  </si>
+  <si>
+    <t>雾雨魔理沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依神女苑&amp;依神紫苑</t>
+  </si>
+  <si>
+    <t>守旧老爹与前卫少女</t>
+  </si>
+  <si>
+    <t>時代親父とハイカラ少女</t>
+  </si>
+  <si>
+    <t>云居一轮&amp;云山</t>
+  </si>
+  <si>
+    <t>TH15</t>
+  </si>
+  <si>
+    <t>东方绀珠传</t>
+  </si>
+  <si>
+    <t>纯狐</t>
+  </si>
+  <si>
     <t>哆来咪·苏伊特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻想乡的二岩</t>
-  </si>
-  <si>
-    <t>幻想郷の二ッ岩</t>
+  </si>
+  <si>
+    <t>Pandemonic Planet</t>
+  </si>
+  <si>
+    <t>パンデモニックプラネット</t>
+  </si>
+  <si>
+    <t>赫卡提亚·拉碧斯拉祖利</t>
+  </si>
+  <si>
+    <t>星条旗的小丑</t>
+  </si>
+  <si>
+    <t>星条旗のピエロ</t>
+  </si>
+  <si>
+    <t>克劳恩皮丝</t>
+  </si>
+  <si>
+    <t>九月的南瓜</t>
+  </si>
+  <si>
+    <t>九月のパンプキン</t>
+  </si>
+  <si>
+    <t>铃瑚</t>
+  </si>
+  <si>
+    <t>兔已着陆</t>
+  </si>
+  <si>
+    <t>兎は舞い降りた</t>
+  </si>
+  <si>
+    <t>清兰</t>
+  </si>
+  <si>
+    <t>逆转的命运之轮</t>
+  </si>
+  <si>
+    <t>逆転するホイールオブフォーチュン</t>
+  </si>
+  <si>
+    <t>稀神探女</t>
+  </si>
+  <si>
+    <t>TH14.5</t>
+  </si>
+  <si>
+    <t>东方深秘录</t>
+  </si>
+  <si>
+    <t>TH14</t>
+  </si>
+  <si>
+    <t>东方辉针城</t>
+  </si>
+  <si>
+    <t>柳树下的杜拉罕</t>
+  </si>
+  <si>
+    <t>柳の下のデュラハン</t>
+  </si>
+  <si>
+    <t>赤蛮奇</t>
+  </si>
+  <si>
+    <t>Reverse Ideology</t>
+  </si>
+  <si>
+    <t>リバースイデオロギー</t>
+  </si>
+  <si>
+    <t>鬼人正邪</t>
+  </si>
+  <si>
+    <t>孤独的狼人</t>
+  </si>
+  <si>
+    <t>孤独なウェアウルフ</t>
+  </si>
+  <si>
+    <t>今泉影狼</t>
+  </si>
+  <si>
+    <t>幻想净琉璃</t>
+  </si>
+  <si>
+    <t>幻想浄瑠璃</t>
+  </si>
+  <si>
+    <t>九十九弁弁＆九十九八桥</t>
+  </si>
+  <si>
+    <t>堀川雷鼓</t>
+  </si>
+  <si>
+    <t>秘境的人鱼</t>
+  </si>
+  <si>
+    <t>秘境のマーメイド</t>
+  </si>
+  <si>
+    <t>若鹭姬</t>
+  </si>
+  <si>
+    <t>少名针妙丸</t>
+  </si>
+  <si>
+    <t>TH13.5</t>
+  </si>
+  <si>
+    <t>东方心绮楼</t>
+  </si>
+  <si>
+    <t>佐渡的二岩</t>
+  </si>
+  <si>
+    <t>佐渡の二ッ岩</t>
+  </si>
+  <si>
+    <t>Magus Night</t>
+  </si>
+  <si>
+    <t>メイガスナイト</t>
+  </si>
+  <si>
+    <t>TH13</t>
+  </si>
+  <si>
+    <t>东方神灵庙</t>
   </si>
   <si>
     <t>二岩猯藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣德传说 ～ True Administrator</t>
+  </si>
+  <si>
+    <t>聖徳伝説 ～ True Administrator</t>
   </si>
   <si>
     <t>丰聪耳神子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈德曼的妖怪少女</t>
-  </si>
-  <si>
-    <t>ハルトマンの妖怪少女</t>
+  </si>
+  <si>
+    <t>Rigid Paradise</t>
+  </si>
+  <si>
+    <t>リジッドパラダイス</t>
+  </si>
+  <si>
+    <t>宫古芳香</t>
+  </si>
+  <si>
+    <t>古老的元神</t>
+  </si>
+  <si>
+    <t>古きユアンシェン</t>
+  </si>
+  <si>
+    <t>霍青娥</t>
+  </si>
+  <si>
+    <t>梦殿大祀庙</t>
+  </si>
+  <si>
+    <t>夢殿大祀廟</t>
+  </si>
+  <si>
+    <t>苏我屠自古</t>
+  </si>
+  <si>
+    <t>物部布都</t>
+  </si>
+  <si>
+    <t>Ghost Lead</t>
+  </si>
+  <si>
+    <t>ゴーストリード</t>
+  </si>
+  <si>
+    <t>西行寺幽幽子</t>
+  </si>
+  <si>
+    <t>门前的妖怪小姑娘</t>
+  </si>
+  <si>
+    <t>門前の妖怪小娘</t>
+  </si>
+  <si>
+    <t>幽谷响子</t>
+  </si>
+  <si>
+    <t>TH12.8</t>
+  </si>
+  <si>
+    <t>妖精大战争</t>
+  </si>
+  <si>
+    <t>光之三妖精</t>
+  </si>
+  <si>
+    <t>TH12.3</t>
+  </si>
+  <si>
+    <t>东方非想天则</t>
+  </si>
+  <si>
+    <t>the Grimoire of Alice</t>
+  </si>
+  <si>
+    <t>爱丽丝·玛格特洛依德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信仰是为了虚幻之人</t>
+  </si>
+  <si>
+    <t>信仰は儚き人間の為に</t>
+  </si>
+  <si>
+    <t>东风谷早苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红美铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵乌路空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴瓦鲁魔法图书馆</t>
+  </si>
+  <si>
+    <t>ヴワル魔法図書館</t>
+  </si>
+  <si>
+    <t>活泼的纯情小姑娘</t>
+  </si>
+  <si>
+    <t>おてんば恋娘</t>
+  </si>
+  <si>
+    <t>琪露诺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋色Magic</t>
+  </si>
+  <si>
+    <t>恋色マジック</t>
+  </si>
+  <si>
+    <t>明日ハレの日、ケの昨日</t>
+  </si>
+  <si>
+    <t>洩矢诹访子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH12</t>
+  </si>
+  <si>
+    <t>东方星莲船</t>
+  </si>
+  <si>
+    <t>Captain Murasa</t>
+  </si>
+  <si>
+    <t>キャプテン・ムラサ</t>
+  </si>
+  <si>
+    <t>村纱水蜜</t>
+  </si>
+  <si>
+    <t>请注意万年备用伞</t>
+  </si>
+  <si>
+    <t>万年置き傘にご注意を</t>
+  </si>
+  <si>
+    <t>多多良小伞</t>
+  </si>
+  <si>
+    <t>平安时代的外星人</t>
+  </si>
+  <si>
+    <t>平安のエイリアン</t>
+  </si>
+  <si>
+    <t>封兽鵺</t>
+  </si>
+  <si>
+    <t>小小的贤将</t>
+  </si>
+  <si>
+    <t>小さな小さな賢将</t>
+  </si>
+  <si>
+    <t>圣白莲</t>
+  </si>
+  <si>
+    <t>虎纹的毘沙门天</t>
+  </si>
+  <si>
+    <t>虎柄の毘沙門天</t>
+  </si>
+  <si>
+    <t>寅丸星</t>
+  </si>
+  <si>
+    <t>云居一轮&amp;云山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH11</t>
+  </si>
+  <si>
+    <t>东方地灵殿</t>
+  </si>
+  <si>
+    <t>少女觉 ～ 3rd eye</t>
+  </si>
+  <si>
+    <t>少女さとり ～ 3rd eye</t>
+  </si>
+  <si>
+    <t>古明地觉</t>
   </si>
   <si>
     <t>古明地恋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被封印的妖怪 ～ Lost Place</t>
+  </si>
+  <si>
+    <t>封じられた妖怪 ～ Lost Place</t>
+  </si>
+  <si>
+    <t>黑谷山女</t>
+  </si>
+  <si>
+    <t>灵乌路空</t>
+  </si>
+  <si>
+    <t>昏暗的风穴</t>
+  </si>
+  <si>
+    <t>暗闇の風穴</t>
+  </si>
+  <si>
+    <t>琪斯美</t>
+  </si>
+  <si>
+    <t>绿眼的嫉妒</t>
+  </si>
+  <si>
+    <t>緑眼のジェラシー</t>
+  </si>
+  <si>
+    <t>水桥帕露西</t>
+  </si>
+  <si>
+    <t>大江山的花之酒宴</t>
+  </si>
+  <si>
+    <t>華のさかづき大江山</t>
+  </si>
+  <si>
+    <t>星熊勇仪</t>
+  </si>
+  <si>
+    <t>TH10.5</t>
+  </si>
+  <si>
+    <t>东方绯想天</t>
+  </si>
+  <si>
+    <t>布加勒斯特的人偶师</t>
+  </si>
+  <si>
+    <t>ブクレシュティの人形師</t>
+  </si>
+  <si>
+    <t>爱丽丝·玛格特洛依德</t>
+  </si>
+  <si>
+    <t>东方妖恋谈</t>
+  </si>
+  <si>
+    <t>東方妖恋談</t>
+  </si>
+  <si>
+    <t>博丽灵梦</t>
+  </si>
+  <si>
+    <t>魂魄妖梦</t>
+  </si>
+  <si>
+    <t>献给已逝公主的七重奏</t>
+  </si>
+  <si>
+    <t>亡き王女の為のセプテット</t>
+  </si>
+  <si>
+    <t>铃仙·优昙华院·因幡</t>
+  </si>
+  <si>
+    <t>风神少女</t>
+  </si>
+  <si>
+    <t>風神少女</t>
+  </si>
+  <si>
+    <t>射命丸文</t>
+  </si>
+  <si>
+    <t>Flowering Night</t>
+  </si>
+  <si>
+    <t>フラワリングナイト</t>
+  </si>
+  <si>
+    <t>十六夜咲夜</t>
+  </si>
+  <si>
+    <t>永江衣玖</t>
+  </si>
+  <si>
+    <t>TH10</t>
+  </si>
+  <si>
+    <t>东方风神录</t>
+  </si>
+  <si>
+    <t>八坂神奈子</t>
+  </si>
+  <si>
+    <t>东风谷早苗</t>
   </si>
   <si>
     <t>河城荷取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铃仙·优昙华院·因幡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亡失的情感</t>
-  </si>
-  <si>
-    <t>亡失のエモーション</t>
-  </si>
-  <si>
-    <t>秦心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少名针妙丸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣白莲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月まで届け、不死の煙</t>
+  </si>
+  <si>
+    <t>命运的阴暗面</t>
+  </si>
+  <si>
+    <t>運命のダークサイド</t>
+  </si>
+  <si>
+    <t>键山雏</t>
+  </si>
+  <si>
+    <t>秋静叶</t>
+  </si>
+  <si>
+    <t>会受稻田姬的斥责啦</t>
+  </si>
+  <si>
+    <t>稲田姫様に叱られるから</t>
+  </si>
+  <si>
+    <t>秋穣子</t>
+  </si>
+  <si>
+    <t>犬走椛</t>
+  </si>
+  <si>
+    <t>Native Faith</t>
+  </si>
+  <si>
+    <t>ネイティブフェイス</t>
+  </si>
+  <si>
+    <t>洩矢诹访子</t>
+  </si>
+  <si>
+    <t>TH09.5</t>
+  </si>
+  <si>
+    <t>东方文花帖</t>
+  </si>
+  <si>
+    <t>东之国的不眠夜</t>
+  </si>
+  <si>
+    <t>東の国の眠らない夜</t>
+  </si>
+  <si>
+    <t>回忆京都</t>
+  </si>
+  <si>
+    <t>レトロスペクティブ京都</t>
+  </si>
+  <si>
+    <t>TH09</t>
+  </si>
+  <si>
+    <t>东方花映塚</t>
+  </si>
+  <si>
+    <t>风见幽香</t>
+  </si>
+  <si>
+    <t>梅蒂欣·梅兰可莉</t>
+  </si>
+  <si>
+    <t>普莉兹姆利巴三姐妹</t>
+  </si>
+  <si>
+    <t>活泼纯情小姑娘的冒险</t>
+  </si>
+  <si>
+    <t>おてんば恋娘の冒険</t>
+  </si>
+  <si>
+    <t>琪露诺</t>
+  </si>
+  <si>
+    <t>风神少女(Short Version)</t>
+  </si>
+  <si>
+    <t>Oriental Dark Flight</t>
+  </si>
+  <si>
+    <t>オリエンタルダークフライト</t>
+  </si>
+  <si>
+    <t>小野塚小町</t>
+  </si>
+  <si>
+    <t>宇佐大人的白旗</t>
+  </si>
+  <si>
+    <t>お宇佐さまの素い幡</t>
+  </si>
+  <si>
+    <t>因幡帝</t>
+  </si>
+  <si>
+    <t>TH08</t>
+  </si>
+  <si>
+    <t>东方永夜抄</t>
+  </si>
+  <si>
+    <t>八意永琳</t>
+  </si>
+  <si>
+    <t>莉格露·奈特巴格</t>
+  </si>
+  <si>
+    <t>已经只能听见歌声了</t>
+  </si>
+  <si>
+    <t>もう歌しか聞こえない</t>
+  </si>
+  <si>
+    <t>米斯蒂娅·萝蕾拉</t>
+  </si>
+  <si>
+    <t>蓬莱山辉夜</t>
+  </si>
+  <si>
+    <t>Voyage1970</t>
+  </si>
+  <si>
+    <t>ヴォヤージュ1970</t>
+  </si>
+  <si>
+    <t>蓬莱山辉夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plain Asia</t>
+  </si>
+  <si>
+    <t>プレインエイジア</t>
+  </si>
+  <si>
+    <t>上白泽慧音</t>
   </si>
   <si>
     <t>藤原妹红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大神神话传</t>
-  </si>
-  <si>
-    <t>大神神話伝</t>
-  </si>
-  <si>
-    <t>物部布都</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恋色Master spark</t>
-  </si>
-  <si>
-    <t>恋色マスタースパーク</t>
+  </si>
+  <si>
+    <t>TH07.5</t>
+  </si>
+  <si>
+    <t>东方萃梦想</t>
+  </si>
+  <si>
+    <t>人偶裁判</t>
+  </si>
+  <si>
+    <t>人形裁判</t>
+  </si>
+  <si>
+    <t>蕾米莉亚·斯卡蕾特</t>
+  </si>
+  <si>
+    <t>帕秋莉·诺蕾姬</t>
+  </si>
+  <si>
+    <t>女仆与血之怀表</t>
+  </si>
+  <si>
+    <t>魔女们的舞会</t>
+  </si>
+  <si>
+    <t>魔女達の舞踏会</t>
+  </si>
+  <si>
+    <t>伊吹萃香</t>
+  </si>
+  <si>
+    <t>TH07</t>
+  </si>
+  <si>
+    <t>东方妖妖梦</t>
+  </si>
+  <si>
+    <t>八云蓝</t>
+  </si>
+  <si>
+    <t>Necro-Fantasia</t>
+  </si>
+  <si>
+    <t>ネクロファンタジア</t>
+  </si>
+  <si>
+    <t>凋叶棕（withered leaf）</t>
+  </si>
+  <si>
+    <t>ティアオイエツォン(withered leaf)</t>
+  </si>
+  <si>
+    <t>橙</t>
+  </si>
+  <si>
+    <t>Crystallize Silver</t>
+  </si>
+  <si>
+    <t>クリスタライズシルバー</t>
+  </si>
+  <si>
+    <t>蕾蒂·霍瓦特洛克</t>
+  </si>
+  <si>
+    <t>天空的花都</t>
+  </si>
+  <si>
+    <t>天空の花の都</t>
+  </si>
+  <si>
+    <t>莉莉白</t>
+  </si>
+  <si>
+    <t>Border of Life</t>
+  </si>
+  <si>
+    <t>ボーダーオブライフ</t>
+  </si>
+  <si>
+    <t>TH06</t>
+  </si>
+  <si>
+    <t>东方红魔乡</t>
+  </si>
+  <si>
+    <t>Lunate Elf</t>
+  </si>
+  <si>
+    <t>ルーネイトエルフ</t>
+  </si>
+  <si>
+    <t>大妖精</t>
+  </si>
+  <si>
+    <t>U.N.OWEN就是她吗？</t>
+  </si>
+  <si>
+    <t>U.N.オーエンは彼女なのか？</t>
+  </si>
+  <si>
+    <t>芙兰朵露·斯卡蕾特</t>
+  </si>
+  <si>
+    <t>明治十七年的上海爱丽丝</t>
+  </si>
+  <si>
+    <t>明治十七年の上海アリス</t>
+  </si>
+  <si>
+    <t>红美铃</t>
+  </si>
+  <si>
+    <t>妖魔夜行</t>
+  </si>
+  <si>
+    <t>露米娅</t>
+  </si>
+  <si>
+    <t>小恶魔</t>
+  </si>
+  <si>
+    <t>TH05</t>
+  </si>
+  <si>
+    <t>东方怪绮谈</t>
+  </si>
+  <si>
+    <t>Plastic Mind</t>
+  </si>
+  <si>
+    <t>プラスチックマインド</t>
+  </si>
+  <si>
+    <t>不可思议之国的爱丽丝</t>
+  </si>
+  <si>
+    <t>不思議の国のアリス</t>
+  </si>
+  <si>
+    <t>露易兹</t>
+  </si>
+  <si>
+    <t>梦子</t>
+  </si>
+  <si>
+    <t>萨拉</t>
+  </si>
+  <si>
+    <t>神绮</t>
+  </si>
+  <si>
+    <t>舞</t>
+  </si>
+  <si>
+    <t>雪</t>
+  </si>
+  <si>
+    <t>雪&amp;舞</t>
+  </si>
+  <si>
+    <t>TH04</t>
+  </si>
+  <si>
+    <t>东方幻想乡</t>
+  </si>
+  <si>
+    <t>艾丽</t>
+  </si>
+  <si>
+    <t>奥莲姬</t>
+  </si>
+  <si>
+    <t>胡桃</t>
+  </si>
+  <si>
+    <t>幻月</t>
+  </si>
+  <si>
+    <t>梦月</t>
   </si>
   <si>
     <t>雾雨魔理沙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>依神女苑&amp;依神紫苑</t>
-  </si>
-  <si>
-    <t>Last Occultism ~现世的秘术师</t>
-  </si>
-  <si>
-    <t>守旧老爹与前卫少女</t>
-  </si>
-  <si>
-    <t>時代親父とハイカラ少女</t>
-  </si>
-  <si>
-    <t>云居一轮&amp;云山</t>
-  </si>
-  <si>
-    <t>TH15</t>
-  </si>
-  <si>
-    <t>东方绀珠传</t>
-  </si>
-  <si>
-    <t>纯狐</t>
-  </si>
-  <si>
-    <t>哆来咪·苏伊特</t>
-  </si>
-  <si>
-    <t>Pandemonic Planet</t>
-  </si>
-  <si>
-    <t>パンデモニックプラネット</t>
-  </si>
-  <si>
-    <t>赫卡提亚·拉碧斯拉祖利</t>
-  </si>
-  <si>
-    <t>星条旗的小丑</t>
-  </si>
-  <si>
-    <t>星条旗のピエロ</t>
-  </si>
-  <si>
-    <t>克劳恩皮丝</t>
-  </si>
-  <si>
-    <t>九月的南瓜</t>
-  </si>
-  <si>
-    <t>九月のパンプキン</t>
-  </si>
-  <si>
-    <t>铃瑚</t>
-  </si>
-  <si>
-    <t>兔已着陆</t>
-  </si>
-  <si>
-    <t>兎は舞い降りた</t>
-  </si>
-  <si>
-    <t>清兰</t>
-  </si>
-  <si>
-    <t>逆转的命运之轮</t>
-  </si>
-  <si>
-    <t>逆転するホイールオブフォーチュン</t>
-  </si>
-  <si>
-    <t>稀神探女</t>
-  </si>
-  <si>
-    <t>TH14.5</t>
-  </si>
-  <si>
-    <t>东方深秘录</t>
-  </si>
-  <si>
-    <t>TH14</t>
-  </si>
-  <si>
-    <t>东方辉针城</t>
-  </si>
-  <si>
-    <t>柳树下的杜拉罕</t>
-  </si>
-  <si>
-    <t>柳の下のデュラハン</t>
-  </si>
-  <si>
-    <t>赤蛮奇</t>
-  </si>
-  <si>
-    <t>Reverse Ideology</t>
-  </si>
-  <si>
-    <t>リバースイデオロギー</t>
-  </si>
-  <si>
-    <t>鬼人正邪</t>
-  </si>
-  <si>
-    <t>孤独的狼人</t>
-  </si>
-  <si>
-    <t>孤独なウェアウルフ</t>
-  </si>
-  <si>
-    <t>今泉影狼</t>
-  </si>
-  <si>
-    <t>幻想净琉璃</t>
-  </si>
-  <si>
-    <t>幻想浄瑠璃</t>
-  </si>
-  <si>
-    <t>九十九弁弁＆九十九八桥</t>
-  </si>
-  <si>
-    <t>堀川雷鼓</t>
-  </si>
-  <si>
-    <t>秘境的人鱼</t>
-  </si>
-  <si>
-    <t>秘境のマーメイド</t>
-  </si>
-  <si>
-    <t>若鹭姬</t>
-  </si>
-  <si>
-    <t>少名针妙丸</t>
-  </si>
-  <si>
-    <t>TH13.5</t>
-  </si>
-  <si>
-    <t>东方心绮楼</t>
-  </si>
-  <si>
-    <t>佐渡的二岩</t>
-  </si>
-  <si>
-    <t>佐渡の二ッ岩</t>
-  </si>
-  <si>
-    <t>Magus Night</t>
-  </si>
-  <si>
-    <t>メイガスナイト</t>
-  </si>
-  <si>
-    <t>TH13</t>
-  </si>
-  <si>
-    <t>东方神灵庙</t>
-  </si>
-  <si>
-    <t>二岩猯藏</t>
-  </si>
-  <si>
-    <t>圣德传说 ～ True Administrator</t>
-  </si>
-  <si>
-    <t>聖徳伝説 ～ True Administrator</t>
-  </si>
-  <si>
-    <t>丰聪耳神子</t>
-  </si>
-  <si>
-    <t>Rigid Paradise</t>
-  </si>
-  <si>
-    <t>リジッドパラダイス</t>
-  </si>
-  <si>
-    <t>宫古芳香</t>
-  </si>
-  <si>
-    <t>古老的元神</t>
-  </si>
-  <si>
-    <t>古きユアンシェン</t>
-  </si>
-  <si>
-    <t>霍青娥</t>
-  </si>
-  <si>
-    <t>梦殿大祀庙</t>
-  </si>
-  <si>
-    <t>夢殿大祀廟</t>
-  </si>
-  <si>
-    <t>苏我屠自古</t>
-  </si>
-  <si>
-    <t>物部布都</t>
-  </si>
-  <si>
-    <t>Ghost Lead</t>
-  </si>
-  <si>
-    <t>ゴーストリード</t>
-  </si>
-  <si>
-    <t>西行寺幽幽子</t>
-  </si>
-  <si>
-    <t>门前的妖怪小姑娘</t>
-  </si>
-  <si>
-    <t>門前の妖怪小娘</t>
-  </si>
-  <si>
-    <t>幽谷响子</t>
-  </si>
-  <si>
-    <t>TH12.8</t>
-  </si>
-  <si>
-    <t>妖精大战争</t>
-  </si>
-  <si>
-    <t>光之三妖精</t>
-  </si>
-  <si>
-    <t>TH12.3</t>
-  </si>
-  <si>
-    <t>东方非想天则</t>
-  </si>
-  <si>
-    <t>the Grimoire of Alice</t>
-  </si>
-  <si>
-    <t>爱丽丝·玛格特洛依德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信仰是为了虚幻之人</t>
-  </si>
-  <si>
-    <t>信仰は儚き人間の為に</t>
-  </si>
-  <si>
-    <t>东风谷早苗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红美铃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵乌路空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴瓦鲁魔法图书馆</t>
-  </si>
-  <si>
-    <t>ヴワル魔法図書館</t>
-  </si>
-  <si>
-    <t>帕秋莉·诺蕾姬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活泼的纯情小姑娘</t>
-  </si>
-  <si>
-    <t>おてんば恋娘</t>
-  </si>
-  <si>
-    <t>琪露诺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恋色Magic</t>
-  </si>
-  <si>
-    <t>恋色マジック</t>
-  </si>
-  <si>
-    <t>明日ハレの日、ケの昨日</t>
-  </si>
-  <si>
-    <t>洩矢诹访子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TH12</t>
-  </si>
-  <si>
-    <t>东方星莲船</t>
-  </si>
-  <si>
-    <t>Captain Murasa</t>
-  </si>
-  <si>
-    <t>キャプテン・ムラサ</t>
-  </si>
-  <si>
-    <t>村纱水蜜</t>
-  </si>
-  <si>
-    <t>请注意万年备用伞</t>
-  </si>
-  <si>
-    <t>万年置き傘にご注意を</t>
-  </si>
-  <si>
-    <t>多多良小伞</t>
-  </si>
-  <si>
-    <t>平安时代的外星人</t>
-  </si>
-  <si>
-    <t>平安のエイリアン</t>
-  </si>
-  <si>
-    <t>封兽鵺</t>
-  </si>
-  <si>
-    <t>小小的贤将</t>
-  </si>
-  <si>
-    <t>小さな小さな賢将</t>
-  </si>
-  <si>
-    <t>圣白莲</t>
-  </si>
-  <si>
-    <t>虎纹的毘沙门天</t>
-  </si>
-  <si>
-    <t>虎柄の毘沙門天</t>
-  </si>
-  <si>
-    <t>寅丸星</t>
-  </si>
-  <si>
-    <t>云居一轮&amp;云山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TH11</t>
-  </si>
-  <si>
-    <t>东方地灵殿</t>
-  </si>
-  <si>
-    <t>少女觉 ～ 3rd eye</t>
-  </si>
-  <si>
-    <t>少女さとり ～ 3rd eye</t>
-  </si>
-  <si>
-    <t>古明地觉</t>
-  </si>
-  <si>
-    <t>古明地恋</t>
-  </si>
-  <si>
-    <t>被封印的妖怪 ～ Lost Place</t>
-  </si>
-  <si>
-    <t>封じられた妖怪 ～ Lost Place</t>
-  </si>
-  <si>
-    <t>黑谷山女</t>
-  </si>
-  <si>
-    <t>灵乌路空</t>
-  </si>
-  <si>
-    <t>昏暗的风穴</t>
-  </si>
-  <si>
-    <t>暗闇の風穴</t>
-  </si>
-  <si>
-    <t>琪斯美</t>
-  </si>
-  <si>
-    <t>绿眼的嫉妒</t>
-  </si>
-  <si>
-    <t>緑眼のジェラシー</t>
-  </si>
-  <si>
-    <t>水桥帕露西</t>
-  </si>
-  <si>
-    <t>大江山的花之酒宴</t>
-  </si>
-  <si>
-    <t>華のさかづき大江山</t>
-  </si>
-  <si>
-    <t>星熊勇仪</t>
-  </si>
-  <si>
-    <t>TH10.5</t>
-  </si>
-  <si>
-    <t>东方绯想天</t>
-  </si>
-  <si>
-    <t>布加勒斯特的人偶师</t>
-  </si>
-  <si>
-    <t>ブクレシュティの人形師</t>
-  </si>
-  <si>
-    <t>爱丽丝·玛格特洛依德</t>
-  </si>
-  <si>
-    <t>东方妖恋谈</t>
-  </si>
-  <si>
-    <t>東方妖恋談</t>
-  </si>
-  <si>
-    <t>博丽灵梦</t>
-  </si>
-  <si>
-    <t>魂魄妖梦</t>
-  </si>
-  <si>
-    <t>献给已逝公主的七重奏</t>
-  </si>
-  <si>
-    <t>亡き王女の為のセプテット</t>
-  </si>
-  <si>
-    <t>蕾米莉亚</t>
-  </si>
-  <si>
-    <t>铃仙·优昙华院·因幡</t>
-  </si>
-  <si>
-    <t>帕秋莉</t>
-  </si>
-  <si>
-    <t>风神少女</t>
-  </si>
-  <si>
-    <t>風神少女</t>
-  </si>
-  <si>
-    <t>射命丸文</t>
-  </si>
-  <si>
-    <t>Flowering Night</t>
-  </si>
-  <si>
-    <t>フラワリングナイト</t>
-  </si>
-  <si>
-    <t>十六夜咲夜</t>
-  </si>
-  <si>
-    <t>小野冢小町</t>
-  </si>
-  <si>
-    <t>永江衣玖</t>
-  </si>
-  <si>
-    <t>TH10</t>
-  </si>
-  <si>
-    <t>东方风神录</t>
-  </si>
-  <si>
-    <t>八坂神奈子</t>
-  </si>
-  <si>
-    <t>东风谷早苗</t>
-  </si>
-  <si>
-    <t>河城荷取</t>
-  </si>
-  <si>
-    <t>命运的阴暗面</t>
-  </si>
-  <si>
-    <t>運命のダークサイド</t>
-  </si>
-  <si>
-    <t>键山雏</t>
-  </si>
-  <si>
-    <t>秋静叶</t>
-  </si>
-  <si>
-    <t>会受稻田姬的斥责啦</t>
-  </si>
-  <si>
-    <t>稲田姫様に叱られるから</t>
-  </si>
-  <si>
-    <t>秋穣子</t>
-  </si>
-  <si>
-    <t>犬走椛</t>
-  </si>
-  <si>
-    <t>Native Faith</t>
-  </si>
-  <si>
-    <t>ネイティブフェイス</t>
-  </si>
-  <si>
-    <t>洩矢诹访子</t>
-  </si>
-  <si>
-    <t>TH09.5</t>
-  </si>
-  <si>
-    <t>东方文花帖</t>
-  </si>
-  <si>
-    <t>东之国的不眠夜</t>
-  </si>
-  <si>
-    <t>東の国の眠らない夜</t>
-  </si>
-  <si>
-    <t>回忆京都</t>
-  </si>
-  <si>
-    <t>レトロスペクティブ京都</t>
-  </si>
-  <si>
-    <t>TH09</t>
-  </si>
-  <si>
-    <t>东方花映塚</t>
-  </si>
-  <si>
-    <t>风见幽香</t>
-  </si>
-  <si>
-    <t>梅蒂欣·梅兰可莉</t>
-  </si>
-  <si>
-    <t>米斯缇娅·罗雷莱</t>
-  </si>
-  <si>
-    <t>普莉兹姆利巴三姐妹</t>
-  </si>
-  <si>
-    <t>活泼纯情小姑娘的冒险</t>
-  </si>
-  <si>
-    <t>おてんば恋娘の冒険</t>
-  </si>
-  <si>
-    <t>琪露诺</t>
-  </si>
-  <si>
-    <t>风神少女(Short Version)</t>
-  </si>
-  <si>
-    <t>Oriental Dark Flight</t>
-  </si>
-  <si>
-    <t>オリエンタルダークフライト</t>
-  </si>
-  <si>
-    <t>小野塚小町</t>
-  </si>
-  <si>
-    <t>宇佐大人的白旗</t>
-  </si>
-  <si>
-    <t>お宇佐さまの素い幡</t>
-  </si>
-  <si>
-    <t>因幡帝</t>
-  </si>
-  <si>
-    <t>TH08</t>
-  </si>
-  <si>
-    <t>东方永夜抄</t>
-  </si>
-  <si>
-    <t>八意永琳</t>
-  </si>
-  <si>
-    <t>莉格露·奈特巴格</t>
-  </si>
-  <si>
-    <t>已经只能听见歌声了</t>
-  </si>
-  <si>
-    <t>もう歌しか聞こえない</t>
-  </si>
-  <si>
-    <t>米斯蒂娅·萝蕾拉</t>
-  </si>
-  <si>
-    <t>蓬莱山辉夜</t>
-  </si>
-  <si>
-    <t>Voyage1970</t>
-  </si>
-  <si>
-    <t>ヴォヤージュ1970</t>
-  </si>
-  <si>
-    <t>蓬莱山辉夜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plain Asia</t>
-  </si>
-  <si>
-    <t>プレインエイジア</t>
-  </si>
-  <si>
-    <t>上白泽慧音</t>
-  </si>
-  <si>
-    <t>藤原妹红</t>
-  </si>
-  <si>
-    <t>TH07.5</t>
-  </si>
-  <si>
-    <t>东方萃梦想</t>
-  </si>
-  <si>
-    <t>人偶裁判</t>
-  </si>
-  <si>
-    <t>人形裁判</t>
-  </si>
-  <si>
-    <t>蕾米莉亚·斯卡蕾特</t>
-  </si>
-  <si>
-    <t>帕秋莉·诺蕾姬</t>
-  </si>
-  <si>
-    <t>女仆与血之怀表</t>
-  </si>
-  <si>
-    <t>魔女们的舞会</t>
-  </si>
-  <si>
-    <t>魔女達の舞踏会</t>
-  </si>
-  <si>
-    <t>伊吹萃香</t>
-  </si>
-  <si>
-    <t>TH07</t>
-  </si>
-  <si>
-    <t>东方妖妖梦</t>
-  </si>
-  <si>
-    <t>八云蓝</t>
-  </si>
-  <si>
-    <t>Necro-Fantasia</t>
-  </si>
-  <si>
-    <t>ネクロファンタジア</t>
-  </si>
-  <si>
-    <t>凋叶棕（withered leaf）</t>
-  </si>
-  <si>
-    <t>ティアオイエツォン(withered leaf)</t>
-  </si>
-  <si>
-    <t>橙</t>
-  </si>
-  <si>
-    <t>Crystallize Silver</t>
-  </si>
-  <si>
-    <t>クリスタライズシルバー</t>
-  </si>
-  <si>
-    <t>蕾蒂·霍瓦特洛克</t>
-  </si>
-  <si>
-    <t>天空的花都</t>
-  </si>
-  <si>
-    <t>天空の花の都</t>
-  </si>
-  <si>
-    <t>莉莉白</t>
-  </si>
-  <si>
-    <t>Border of Life</t>
-  </si>
-  <si>
-    <t>ボーダーオブライフ</t>
-  </si>
-  <si>
-    <t>TH06</t>
-  </si>
-  <si>
-    <t>东方红魔乡</t>
-  </si>
-  <si>
-    <t>Lunate Elf</t>
-  </si>
-  <si>
-    <t>ルーネイトエルフ</t>
-  </si>
-  <si>
-    <t>大妖精</t>
-  </si>
-  <si>
-    <t>U.N.OWEN就是她吗？</t>
-  </si>
-  <si>
-    <t>U.N.オーエンは彼女なのか？</t>
-  </si>
-  <si>
-    <t>芙兰朵露·斯卡蕾特</t>
-  </si>
-  <si>
-    <t>明治十七年的上海爱丽丝</t>
-  </si>
-  <si>
-    <t>明治十七年の上海アリス</t>
-  </si>
-  <si>
-    <t>红美铃</t>
-  </si>
-  <si>
-    <t>妖魔夜行</t>
-  </si>
-  <si>
-    <t>露米娅</t>
-  </si>
-  <si>
-    <t>小恶魔</t>
-  </si>
-  <si>
-    <t>TH05</t>
-  </si>
-  <si>
-    <t>东方怪绮谈</t>
-  </si>
-  <si>
-    <t>Plastic Mind</t>
-  </si>
-  <si>
-    <t>プラスチックマインド</t>
-  </si>
-  <si>
-    <t>不可思议之国的爱丽丝</t>
-  </si>
-  <si>
-    <t>不思議の国のアリス</t>
-  </si>
-  <si>
-    <t>露易兹</t>
-  </si>
-  <si>
-    <t>梦子</t>
-  </si>
-  <si>
-    <t>萨拉</t>
-  </si>
-  <si>
-    <t>神绮</t>
-  </si>
-  <si>
-    <t>舞</t>
-  </si>
-  <si>
-    <t>雪</t>
-  </si>
-  <si>
-    <t>雪&amp;舞</t>
-  </si>
-  <si>
-    <t>TH04</t>
-  </si>
-  <si>
-    <t>东方幻想乡</t>
-  </si>
-  <si>
-    <t>艾丽</t>
-  </si>
-  <si>
-    <t>奥莲姬</t>
-  </si>
-  <si>
-    <t>胡桃</t>
-  </si>
-  <si>
-    <t>幻月</t>
-  </si>
-  <si>
-    <t>梦月</t>
-  </si>
-  <si>
-    <t>雾雨魔理沙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TH03</t>
   </si>
   <si>
@@ -1218,9 +1185,6 @@
     <t>冈崎梦美</t>
   </si>
   <si>
-    <t>卡娜·安娜贝拉尔</t>
-  </si>
-  <si>
     <t>Reincarnation</t>
   </si>
   <si>
@@ -1407,9 +1371,6 @@
   </si>
   <si>
     <t>今宵是飘逸的自我主义者(Live ver) ～ Egoistic Flowers.</t>
-  </si>
-  <si>
-    <t>狂気の瞳 ~ Invisible Full Moon</t>
   </si>
   <si>
     <t>陰陽 ~ The Positive and Negative</t>
@@ -1817,9 +1778,6 @@
     <t>ラストオカルティズム ~ 現し世の秘術師</t>
   </si>
   <si>
-    <t>有頂天変 ~ Wonderful Heaven</t>
-  </si>
-  <si>
     <t>憑坐は夢と現の間に ~ Necro-Fantasia</t>
   </si>
   <si>
@@ -1918,15 +1876,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TH12.6</t>
-  </si>
-  <si>
-    <t>TH12.7</t>
-  </si>
-  <si>
-    <t>TH12.9</t>
-  </si>
-  <si>
     <t>あなたの町の怪事件</t>
   </si>
   <si>
@@ -1958,35 +1907,260 @@
     <t>无间之钟　～ Infinite Nightmare</t>
   </si>
   <si>
+    <t>射命丸文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰猫燐</t>
+  </si>
+  <si>
+    <t>设定集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方求闻史记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿礼の子供</t>
+  </si>
+  <si>
+    <t>阿礼的孩子</t>
+  </si>
+  <si>
+    <t>稗田阿求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娜兹玲</t>
+  </si>
+  <si>
+    <t>东方铃奈庵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判読眼のビブロフィリア</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本居小铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>识文解意的爱书人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サニールチルフレクション</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sunny Rutile Flection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因夜失眠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜だから眠れない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖精燦々として</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖精灿烂的样子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小恶魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小恶魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡娜·安娜贝拉尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑尼·米尔克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露娜·切露德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯塔·萨菲雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方三月精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方儚月抄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綿月のスペルカード ～Lunatic Blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>妖怪之山　～ Mysterious Mountain</t>
-  </si>
-  <si>
-    <t>射命丸文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰猫燐</t>
-  </si>
-  <si>
-    <t>设定集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方求闻史记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿礼の子供</t>
-  </si>
-  <si>
-    <t>阿礼的孩子</t>
-  </si>
-  <si>
-    <t>稗田阿求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娜兹玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绵月的符卡　～ Lunatic Blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绵月丰姬&amp;绵月依姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空的格林尼治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空のグリニッジ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大空魔术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇佐见莲子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓮台野夜行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔術師メリー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔术师梅莉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛艾露贝莉·赫恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH12.5</t>
+  </si>
+  <si>
+    <t>ニュースハウンド</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Newshound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH14.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹幕天邪鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反則の狼煙を上げろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃起犯规的狼烟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可能弾幕には反則を</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以犯规对不可能的弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ミッドナイトスペルカード</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Midnight Spell Card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ロマンチック逃飛行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪漫逃飞行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永遠の三日天下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永远的三日天下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼人正邪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悪夢日記</t>
+  </si>
+  <si>
+    <t>噩梦日记</t>
+  </si>
+  <si>
+    <t>布加勒斯特的人偶师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女秘封俱乐部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女秘封倶楽部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月の妖鳥、化猫の幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月之妖鸟、化猫之幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘封组</t>
+  </si>
+  <si>
+    <t>小野塚小町</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2320,10 +2494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F258"/>
+  <dimension ref="A1:F260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="D214" sqref="D214"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2352,24 +2526,24 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D2" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F2">
         <v>22636836</v>
@@ -2377,19 +2551,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E3" t="s">
         <v>400</v>
-      </c>
-      <c r="B3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D3" t="s">
-        <v>596</v>
-      </c>
-      <c r="E3" t="s">
-        <v>409</v>
       </c>
       <c r="F3">
         <v>22636829</v>
@@ -2397,19 +2571,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B4" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C4" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="D4" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E4" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F4">
         <v>22636835</v>
@@ -2417,19 +2591,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" t="s">
         <v>401</v>
       </c>
-      <c r="C5" t="s">
-        <v>408</v>
-      </c>
-      <c r="D5" t="s">
-        <v>410</v>
-      </c>
       <c r="E5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F5">
         <v>22636837</v>
@@ -2437,19 +2611,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C6" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D6" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E6" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F6">
         <v>500684336</v>
@@ -2457,19 +2631,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F7">
         <v>34999157</v>
@@ -2477,19 +2651,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D8" t="s">
+        <v>389</v>
+      </c>
+      <c r="E8" t="s">
         <v>390</v>
-      </c>
-      <c r="B8" t="s">
-        <v>391</v>
-      </c>
-      <c r="C8" t="s">
-        <v>397</v>
-      </c>
-      <c r="D8" t="s">
-        <v>398</v>
-      </c>
-      <c r="E8" t="s">
-        <v>399</v>
       </c>
       <c r="F8">
         <v>34999158</v>
@@ -2497,19 +2671,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B9" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F9">
         <v>34999160</v>
@@ -2517,19 +2691,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B10" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C10" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D10" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E10" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F10">
         <v>34999161</v>
@@ -2537,19 +2711,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B11" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C11" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D11" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="E11" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F11">
         <v>34999163</v>
@@ -2557,19 +2731,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B12" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F12">
         <v>22636805</v>
@@ -2577,19 +2751,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C13" t="s">
         <v>376</v>
       </c>
-      <c r="C13" t="s">
-        <v>385</v>
-      </c>
       <c r="D13" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="E13" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F13">
         <v>22636807</v>
@@ -2597,16 +2771,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C14" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D14" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -2617,19 +2791,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B15" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C15" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D15" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="E15" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F15">
         <v>22636816</v>
@@ -2637,19 +2811,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B16" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C16" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D16" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="E16" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F16">
         <v>22636808</v>
@@ -2657,19 +2831,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B17" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C17" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="D17" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="E17" t="s">
-        <v>384</v>
+        <v>624</v>
       </c>
       <c r="F17">
         <v>22636810</v>
@@ -2677,19 +2851,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B18" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C18" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D18" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E18" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F18">
         <v>22636806</v>
@@ -2697,19 +2871,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C19" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D19" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="E19" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F19">
         <v>22636820</v>
@@ -2717,19 +2891,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B20" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C20" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D20" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E20" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F20">
         <v>22636811</v>
@@ -2737,19 +2911,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>367</v>
+      </c>
+      <c r="B21" t="s">
+        <v>368</v>
+      </c>
+      <c r="C21" t="s">
+        <v>374</v>
+      </c>
+      <c r="D21" t="s">
+        <v>444</v>
+      </c>
+      <c r="E21" t="s">
         <v>375</v>
-      </c>
-      <c r="B21" t="s">
-        <v>376</v>
-      </c>
-      <c r="C21" t="s">
-        <v>382</v>
-      </c>
-      <c r="D21" t="s">
-        <v>454</v>
-      </c>
-      <c r="E21" t="s">
-        <v>383</v>
       </c>
       <c r="F21">
         <v>22636814</v>
@@ -2757,19 +2931,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B22" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C22" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D22" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="E22" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F22">
         <v>22636738</v>
@@ -2777,19 +2951,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B23" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C23" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D23" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="E23" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F23">
         <v>22636747</v>
@@ -2797,19 +2971,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B24" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C24" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D24" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="E24" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F24">
         <v>22636741</v>
@@ -2817,16 +2991,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B25" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C25" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="D25" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -2837,19 +3011,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B26" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C26" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="D26" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="E26" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F26">
         <v>22636742</v>
@@ -2857,16 +3031,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B27" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C27" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D27" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
@@ -2877,16 +3051,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B28" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C28" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="D28" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="E28" t="s">
         <v>23</v>
@@ -2897,19 +3071,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B29" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C29" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="D29" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="E29" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F29">
         <v>22636744</v>
@@ -2917,19 +3091,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B30" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C30" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="D30" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="E30" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F30">
         <v>22636758</v>
@@ -2937,19 +3111,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>346</v>
+      </c>
+      <c r="B31" t="s">
+        <v>347</v>
+      </c>
+      <c r="C31" t="s">
+        <v>447</v>
+      </c>
+      <c r="D31" t="s">
+        <v>586</v>
+      </c>
+      <c r="E31" t="s">
         <v>354</v>
-      </c>
-      <c r="B31" t="s">
-        <v>355</v>
-      </c>
-      <c r="C31" t="s">
-        <v>457</v>
-      </c>
-      <c r="D31" t="s">
-        <v>597</v>
-      </c>
-      <c r="E31" t="s">
-        <v>362</v>
       </c>
       <c r="F31">
         <v>22636764</v>
@@ -2957,19 +3131,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B32" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C32" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D32" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="E32" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F32">
         <v>22636763</v>
@@ -2977,19 +3151,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B33" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C33" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D33" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E33" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F33">
         <v>22636767</v>
@@ -2997,19 +3171,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B34" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C34" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D34" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="E34" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F34">
         <v>22636765</v>
@@ -3017,19 +3191,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B35" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C35" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D35" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E35" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F35">
         <v>22636779</v>
@@ -3037,19 +3211,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B36" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C36" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D36" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E36" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F36">
         <v>22636770</v>
@@ -3057,19 +3231,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C37" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D37" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="E37" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F37">
         <v>22636768</v>
@@ -3077,19 +3251,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s">
+        <v>347</v>
+      </c>
+      <c r="C38" t="s">
+        <v>453</v>
+      </c>
+      <c r="D38" t="s">
+        <v>546</v>
+      </c>
+      <c r="E38" t="s">
         <v>355</v>
-      </c>
-      <c r="C38" t="s">
-        <v>463</v>
-      </c>
-      <c r="D38" t="s">
-        <v>556</v>
-      </c>
-      <c r="E38" t="s">
-        <v>363</v>
       </c>
       <c r="F38">
         <v>22636774</v>
@@ -3097,19 +3271,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B39" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C39" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D39" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E39" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F39">
         <v>22636777</v>
@@ -3117,19 +3291,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B40" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F40">
         <v>22636772</v>
@@ -3137,19 +3311,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C41" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D41" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E41" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F41">
         <v>22636719</v>
@@ -3157,19 +3331,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B42" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C42" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D42" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E42" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F42">
         <v>22636721</v>
@@ -3177,19 +3351,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B43" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C43" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D43" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E43" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F43">
         <v>22636718</v>
@@ -3197,1770 +3371,1770 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C44" t="s">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="D44" t="s">
-        <v>349</v>
+        <v>569</v>
       </c>
       <c r="E44" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F44">
-        <v>22636722</v>
+        <v>22636730</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>332</v>
+      </c>
+      <c r="B45" t="s">
+        <v>333</v>
+      </c>
+      <c r="C45" t="s">
         <v>340</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>341</v>
       </c>
-      <c r="C45" t="s">
-        <v>192</v>
-      </c>
-      <c r="D45" t="s">
-        <v>193</v>
-      </c>
       <c r="E45" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F45">
-        <v>22636724</v>
+        <v>22636722</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B46" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C46" t="s">
-        <v>418</v>
+        <v>189</v>
       </c>
       <c r="D46" t="s">
-        <v>419</v>
+        <v>190</v>
       </c>
       <c r="E46" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="F46">
-        <v>22636720</v>
+        <v>22636724</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C47" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D47" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="E47" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="F47">
-        <v>22636725</v>
+        <v>22636720</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B48" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C48" t="s">
-        <v>248</v>
+        <v>411</v>
       </c>
       <c r="D48" t="s">
-        <v>249</v>
+        <v>412</v>
       </c>
       <c r="E48" t="s">
-        <v>318</v>
+        <v>252</v>
       </c>
       <c r="F48">
-        <v>22636723</v>
+        <v>22636725</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B49" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C49" t="s">
-        <v>345</v>
+        <v>244</v>
       </c>
       <c r="D49" t="s">
-        <v>346</v>
+        <v>245</v>
       </c>
       <c r="E49" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="F49">
-        <v>22636729</v>
+        <v>22636723</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B50" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C50" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D50" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E50" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F50">
-        <v>22636707</v>
+        <v>22636729</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>316</v>
+      </c>
+      <c r="B51" t="s">
+        <v>317</v>
+      </c>
+      <c r="C51" t="s">
         <v>324</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>325</v>
       </c>
-      <c r="C51" t="s">
-        <v>329</v>
-      </c>
-      <c r="D51" t="s">
-        <v>330</v>
-      </c>
       <c r="E51" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F51">
-        <v>22636702</v>
+        <v>22636707</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B52" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C52" t="s">
-        <v>464</v>
+        <v>321</v>
       </c>
       <c r="D52" t="s">
-        <v>465</v>
+        <v>322</v>
       </c>
       <c r="E52" t="s">
-        <v>243</v>
+        <v>323</v>
       </c>
       <c r="F52">
-        <v>22636711</v>
+        <v>22636702</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B53" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C53" t="s">
-        <v>335</v>
+        <v>662</v>
       </c>
       <c r="D53" t="s">
-        <v>336</v>
+        <v>550</v>
       </c>
       <c r="E53" t="s">
-        <v>337</v>
+        <v>239</v>
       </c>
       <c r="F53">
-        <v>22636703</v>
+        <v>22636698</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B54" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C54" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="D54" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E54" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="F54">
-        <v>22636705</v>
+        <v>22636711</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B55" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C55" t="s">
-        <v>415</v>
+        <v>327</v>
       </c>
       <c r="D55" t="s">
-        <v>557</v>
+        <v>328</v>
       </c>
       <c r="E55" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="F55">
-        <v>22636714</v>
+        <v>22636703</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C56" t="s">
-        <v>592</v>
+        <v>456</v>
       </c>
       <c r="D56" t="s">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="E56" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="F56">
-        <v>22636709</v>
+        <v>22636705</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C57" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="D57" t="s">
-        <v>339</v>
+        <v>553</v>
       </c>
       <c r="E57" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="F57">
-        <v>22636704</v>
+        <v>22636701</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C58" t="s">
-        <v>468</v>
+        <v>406</v>
       </c>
       <c r="D58" t="s">
-        <v>468</v>
+        <v>547</v>
       </c>
       <c r="E58" t="s">
-        <v>326</v>
+        <v>243</v>
       </c>
       <c r="F58">
-        <v>22636710</v>
+        <v>22636714</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B59" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C59" t="s">
-        <v>327</v>
+        <v>581</v>
       </c>
       <c r="D59" t="s">
-        <v>328</v>
+        <v>413</v>
       </c>
       <c r="E59" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="F59">
-        <v>22636708</v>
+        <v>22636709</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B60" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C60" t="s">
-        <v>244</v>
+        <v>330</v>
       </c>
       <c r="D60" t="s">
-        <v>244</v>
+        <v>331</v>
       </c>
       <c r="E60" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="F60">
-        <v>22765972</v>
+        <v>22636704</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B61" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C61" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="D61" t="s">
-        <v>558</v>
+        <v>458</v>
       </c>
       <c r="E61" t="s">
-        <v>246</v>
+        <v>318</v>
       </c>
       <c r="F61">
-        <v>22765996</v>
+        <v>22636710</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B62" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C62" t="s">
-        <v>198</v>
+        <v>319</v>
       </c>
       <c r="D62" t="s">
-        <v>199</v>
+        <v>320</v>
       </c>
       <c r="E62" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="F62">
-        <v>22765964</v>
+        <v>22636708</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B63" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C63" t="s">
-        <v>321</v>
+        <v>240</v>
       </c>
       <c r="D63" t="s">
-        <v>322</v>
+        <v>240</v>
       </c>
       <c r="E63" t="s">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="F63">
-        <v>22765986</v>
+        <v>22765972</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B64" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C64" t="s">
-        <v>320</v>
+        <v>405</v>
       </c>
       <c r="D64" t="s">
-        <v>425</v>
+        <v>548</v>
       </c>
       <c r="E64" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F64">
-        <v>22765976</v>
+        <v>22765996</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B65" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C65" t="s">
-        <v>420</v>
+        <v>194</v>
       </c>
       <c r="D65" t="s">
-        <v>559</v>
+        <v>195</v>
       </c>
       <c r="E65" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="F65">
-        <v>22766000</v>
+        <v>22765964</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>306</v>
+      </c>
+      <c r="B66" t="s">
+        <v>307</v>
+      </c>
+      <c r="C66" t="s">
+        <v>313</v>
+      </c>
+      <c r="D66" t="s">
         <v>314</v>
       </c>
-      <c r="B66" t="s">
-        <v>315</v>
-      </c>
-      <c r="C66" t="s">
-        <v>241</v>
-      </c>
-      <c r="D66" t="s">
-        <v>560</v>
-      </c>
       <c r="E66" t="s">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="F66">
-        <v>22765967</v>
+        <v>22765986</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B67" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C67" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D67" t="s">
-        <v>317</v>
+        <v>416</v>
       </c>
       <c r="E67" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F67">
-        <v>22765990</v>
+        <v>22765976</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B68" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C68" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D68" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="E68" t="s">
-        <v>319</v>
+        <v>252</v>
       </c>
       <c r="F68">
-        <v>22765980</v>
+        <v>22766000</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B69" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C69" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="D69" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="E69" t="s">
-        <v>319</v>
+        <v>239</v>
       </c>
       <c r="F69">
-        <v>22766003</v>
+        <v>22765967</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B70" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C70" t="s">
-        <v>415</v>
+        <v>308</v>
       </c>
       <c r="D70" t="s">
-        <v>565</v>
+        <v>309</v>
       </c>
       <c r="E70" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F70">
-        <v>22765970</v>
+        <v>22765990</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B71" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C71" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D71" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="E71" t="s">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="F71">
-        <v>22765994</v>
+        <v>22765980</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B72" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C72" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="D72" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="E72" t="s">
-        <v>318</v>
+        <v>622</v>
       </c>
       <c r="F72">
-        <v>22765966</v>
+        <v>22766003</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B73" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C73" t="s">
-        <v>592</v>
+        <v>406</v>
       </c>
       <c r="D73" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="E73" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="F73">
-        <v>22765984</v>
+        <v>22765970</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B74" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C74" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D74" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="E74" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="F74">
-        <v>22765997</v>
+        <v>22765994</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B75" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C75" t="s">
-        <v>423</v>
+        <v>244</v>
       </c>
       <c r="D75" t="s">
-        <v>424</v>
+        <v>554</v>
       </c>
       <c r="E75" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F75">
-        <v>22766006</v>
+        <v>22765966</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B76" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C76" t="s">
-        <v>469</v>
+        <v>581</v>
       </c>
       <c r="D76" t="s">
-        <v>470</v>
+        <v>556</v>
       </c>
       <c r="E76" t="s">
-        <v>302</v>
+        <v>173</v>
       </c>
       <c r="F76">
-        <v>22636686</v>
+        <v>22765984</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B77" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C77" t="s">
-        <v>303</v>
+        <v>404</v>
       </c>
       <c r="D77" t="s">
-        <v>304</v>
+        <v>557</v>
       </c>
       <c r="E77" t="s">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="F77">
-        <v>22636681</v>
+        <v>22765997</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B78" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C78" t="s">
-        <v>310</v>
+        <v>414</v>
       </c>
       <c r="D78" t="s">
-        <v>311</v>
+        <v>415</v>
       </c>
       <c r="E78" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F78">
-        <v>22636690</v>
+        <v>22766006</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B79" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C79" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D79" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E79" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="F79">
-        <v>22636684</v>
+        <v>22636686</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B80" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>295</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>296</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="F80">
-        <v>22636680</v>
+        <v>22636681</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B81" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C81" t="s">
-        <v>473</v>
+        <v>302</v>
       </c>
       <c r="D81" t="s">
-        <v>474</v>
+        <v>303</v>
       </c>
       <c r="E81" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F81">
-        <v>22636693</v>
+        <v>22636690</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B82" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C82" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="D82" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="E82" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F82">
-        <v>22636685</v>
+        <v>22636684</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B83" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C83" t="s">
-        <v>476</v>
+        <v>102</v>
       </c>
       <c r="D83" t="s">
-        <v>477</v>
+        <v>103</v>
       </c>
       <c r="E83" t="s">
-        <v>301</v>
+        <v>20</v>
       </c>
       <c r="F83">
-        <v>22636683</v>
+        <v>22636680</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B84" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C84" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="D84" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="E84" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="F84">
-        <v>22636695</v>
+        <v>22636693</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B85" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C85" t="s">
-        <v>307</v>
+        <v>435</v>
       </c>
       <c r="D85" t="s">
-        <v>308</v>
+        <v>465</v>
       </c>
       <c r="E85" t="s">
-        <v>309</v>
+        <v>246</v>
       </c>
       <c r="F85">
-        <v>22636689</v>
+        <v>22636685</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B86" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C86" t="s">
-        <v>593</v>
+        <v>466</v>
       </c>
       <c r="D86" t="s">
-        <v>99</v>
+        <v>467</v>
       </c>
       <c r="E86" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="F86">
-        <v>22636687</v>
+        <v>22636683</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B87" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C87" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D87" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="E87" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="F87">
-        <v>510172</v>
+        <v>22636695</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B88" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C88" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D88" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E88" t="s">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="F88">
-        <v>510174</v>
+        <v>22636689</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B89" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C89" t="s">
-        <v>256</v>
+        <v>582</v>
       </c>
       <c r="D89" t="s">
-        <v>257</v>
+        <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="F89">
-        <v>510177</v>
+        <v>22636687</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B90" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C90" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="D90" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="E90" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F90">
-        <v>510179</v>
+        <v>510172</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B91" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C91" t="s">
-        <v>444</v>
+        <v>285</v>
       </c>
       <c r="D91" t="s">
-        <v>475</v>
+        <v>286</v>
       </c>
       <c r="E91" t="s">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="F91">
-        <v>510182</v>
+        <v>510174</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B92" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C92" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="D92" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="E92" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="F92">
-        <v>510185</v>
+        <v>510177</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B93" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C93" t="s">
-        <v>466</v>
+        <v>407</v>
       </c>
       <c r="D93" t="s">
-        <v>467</v>
+        <v>408</v>
       </c>
       <c r="E93" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="F93">
-        <v>510188</v>
+        <v>510179</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B94" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C94" t="s">
-        <v>481</v>
+        <v>435</v>
       </c>
       <c r="D94" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="E94" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="F94">
-        <v>510192</v>
+        <v>510182</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>276</v>
+      </c>
+      <c r="B95" t="s">
+        <v>277</v>
+      </c>
+      <c r="C95" t="s">
+        <v>281</v>
+      </c>
+      <c r="D95" t="s">
+        <v>282</v>
+      </c>
+      <c r="E95" t="s">
         <v>283</v>
       </c>
-      <c r="B95" t="s">
-        <v>284</v>
-      </c>
-      <c r="C95" t="s">
-        <v>296</v>
-      </c>
-      <c r="D95" t="s">
-        <v>297</v>
-      </c>
-      <c r="E95" t="s">
-        <v>298</v>
-      </c>
       <c r="F95">
-        <v>510196</v>
+        <v>510185</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B96" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C96" t="s">
-        <v>292</v>
+        <v>456</v>
       </c>
       <c r="D96" t="s">
-        <v>590</v>
+        <v>457</v>
       </c>
       <c r="E96" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="F96">
-        <v>510200</v>
+        <v>510188</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B97" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C97" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="D97" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="E97" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F97">
-        <v>510204</v>
+        <v>510192</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B98" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C98" t="s">
-        <v>485</v>
+        <v>288</v>
       </c>
       <c r="D98" t="s">
-        <v>486</v>
+        <v>289</v>
       </c>
       <c r="E98" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F98">
-        <v>510208</v>
+        <v>510196</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B99" t="s">
+        <v>277</v>
+      </c>
+      <c r="C99" t="s">
         <v>284</v>
       </c>
-      <c r="C99" t="s">
-        <v>599</v>
-      </c>
       <c r="D99" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="E99" t="s">
-        <v>600</v>
+        <v>249</v>
       </c>
       <c r="F99">
-        <v>510216</v>
+        <v>510200</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B100" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C100" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="D100" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="E100" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="F100">
-        <v>510212</v>
+        <v>510204</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>276</v>
+      </c>
+      <c r="B101" t="s">
         <v>277</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
+        <v>475</v>
+      </c>
+      <c r="D101" t="s">
+        <v>476</v>
+      </c>
+      <c r="E101" t="s">
         <v>278</v>
       </c>
-      <c r="C101" t="s">
-        <v>489</v>
-      </c>
-      <c r="D101" t="s">
-        <v>426</v>
-      </c>
-      <c r="E101" t="s">
-        <v>255</v>
-      </c>
       <c r="F101">
-        <v>29710947</v>
+        <v>510208</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>276</v>
+      </c>
+      <c r="B102" t="s">
         <v>277</v>
       </c>
-      <c r="B102" t="s">
-        <v>278</v>
-      </c>
       <c r="C102" t="s">
-        <v>427</v>
+        <v>588</v>
       </c>
       <c r="D102" t="s">
-        <v>428</v>
+        <v>590</v>
       </c>
       <c r="E102" t="s">
-        <v>255</v>
+        <v>589</v>
       </c>
       <c r="F102">
-        <v>29710948</v>
+        <v>510216</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>276</v>
+      </c>
+      <c r="B103" t="s">
         <v>277</v>
       </c>
-      <c r="B103" t="s">
-        <v>278</v>
-      </c>
       <c r="C103" t="s">
-        <v>279</v>
+        <v>477</v>
       </c>
       <c r="D103" t="s">
-        <v>280</v>
+        <v>478</v>
       </c>
       <c r="E103" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="F103">
-        <v>29710949</v>
+        <v>510212</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B104" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C104" t="s">
-        <v>281</v>
+        <v>479</v>
       </c>
       <c r="D104" t="s">
-        <v>282</v>
+        <v>417</v>
       </c>
       <c r="E104" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F104">
-        <v>29710950</v>
+        <v>29710947</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B105" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C105" t="s">
-        <v>253</v>
+        <v>418</v>
       </c>
       <c r="D105" t="s">
-        <v>254</v>
+        <v>419</v>
       </c>
       <c r="E105" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F105">
-        <v>29710952</v>
+        <v>29710948</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B106" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C106" t="s">
-        <v>490</v>
+        <v>272</v>
       </c>
       <c r="D106" t="s">
-        <v>491</v>
+        <v>273</v>
       </c>
       <c r="E106" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="F106">
-        <v>22636639</v>
+        <v>29710949</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B107" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C107" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D107" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E107" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="F107">
-        <v>22636649</v>
+        <v>29710950</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B108" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C108" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="D108" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="E108" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="F108">
-        <v>22636644</v>
+        <v>29710952</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B109" t="s">
+        <v>255</v>
+      </c>
+      <c r="C109" t="s">
+        <v>480</v>
+      </c>
+      <c r="D109" t="s">
+        <v>481</v>
+      </c>
+      <c r="E109" t="s">
         <v>262</v>
       </c>
-      <c r="C109" t="s">
-        <v>435</v>
-      </c>
-      <c r="D109" t="s">
-        <v>436</v>
-      </c>
-      <c r="E109" t="s">
-        <v>265</v>
-      </c>
       <c r="F109">
-        <v>22636653</v>
+        <v>22636639</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B110" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C110" t="s">
-        <v>492</v>
+        <v>263</v>
       </c>
       <c r="D110" t="s">
-        <v>493</v>
+        <v>264</v>
       </c>
       <c r="E110" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F110">
-        <v>22636645</v>
+        <v>22636649</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>254</v>
+      </c>
+      <c r="B111" t="s">
+        <v>255</v>
+      </c>
+      <c r="C111" t="s">
+        <v>259</v>
+      </c>
+      <c r="D111" t="s">
+        <v>260</v>
+      </c>
+      <c r="E111" t="s">
         <v>261</v>
       </c>
-      <c r="B111" t="s">
-        <v>262</v>
-      </c>
-      <c r="C111" t="s">
-        <v>494</v>
-      </c>
-      <c r="D111" t="s">
-        <v>495</v>
-      </c>
-      <c r="E111" t="s">
-        <v>255</v>
-      </c>
       <c r="F111">
-        <v>22636647</v>
+        <v>22636644</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C112" t="s">
-        <v>187</v>
+        <v>426</v>
       </c>
       <c r="D112" t="s">
-        <v>188</v>
+        <v>427</v>
       </c>
       <c r="E112" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F112">
-        <v>22636655</v>
+        <v>22636653</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B113" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C113" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="D113" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="E113" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F113">
-        <v>22636651</v>
+        <v>22636645</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B114" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C114" t="s">
-        <v>274</v>
+        <v>484</v>
       </c>
       <c r="D114" t="s">
-        <v>275</v>
+        <v>485</v>
       </c>
       <c r="E114" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="F114">
-        <v>22636656</v>
+        <v>22636647</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="B115" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="C115" t="s">
-        <v>498</v>
+        <v>184</v>
       </c>
       <c r="D115" t="s">
-        <v>584</v>
+        <v>185</v>
       </c>
       <c r="E115" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F115">
-        <v>22765926</v>
+        <v>22636655</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="B116" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="C116" t="s">
-        <v>443</v>
+        <v>486</v>
       </c>
       <c r="D116" t="s">
-        <v>585</v>
+        <v>487</v>
       </c>
       <c r="E116" t="s">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="F116">
-        <v>22765920</v>
+        <v>22636651</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="B117" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="C117" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="D117" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E117" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="F117">
-        <v>22765905</v>
+        <v>22636656</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B118" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C118" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="D118" t="s">
-        <v>541</v>
+        <v>573</v>
       </c>
       <c r="E118" t="s">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="F118">
-        <v>22765917</v>
+        <v>22765926</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B119" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C119" t="s">
-        <v>256</v>
+        <v>434</v>
       </c>
       <c r="D119" t="s">
-        <v>257</v>
+        <v>574</v>
       </c>
       <c r="E119" t="s">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="F119">
-        <v>22765910</v>
+        <v>22765920</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B120" t="s">
+        <v>236</v>
+      </c>
+      <c r="C120" t="s">
         <v>240</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>241</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>242</v>
       </c>
-      <c r="E120" t="s">
-        <v>243</v>
-      </c>
       <c r="F120">
-        <v>22765909</v>
+        <v>22765905</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B121" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C121" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="D121" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="E121" t="s">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="F121">
-        <v>22765906</v>
+        <v>22765917</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C122" t="s">
-        <v>418</v>
+        <v>250</v>
       </c>
       <c r="D122" t="s">
-        <v>586</v>
+        <v>251</v>
       </c>
       <c r="E122" t="s">
         <v>252</v>
       </c>
       <c r="F122">
-        <v>22765921</v>
+        <v>22765910</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>235</v>
+      </c>
+      <c r="B123" t="s">
+        <v>236</v>
+      </c>
+      <c r="C123" t="s">
+        <v>237</v>
+      </c>
+      <c r="D123" t="s">
+        <v>238</v>
+      </c>
+      <c r="E123" t="s">
         <v>239</v>
       </c>
-      <c r="B123" t="s">
-        <v>240</v>
-      </c>
-      <c r="C123" t="s">
-        <v>592</v>
-      </c>
-      <c r="D123" t="s">
-        <v>587</v>
-      </c>
-      <c r="E123" t="s">
-        <v>176</v>
-      </c>
       <c r="F123">
-        <v>22765913</v>
+        <v>22765909</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B124" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C124" t="s">
-        <v>248</v>
+        <v>406</v>
       </c>
       <c r="D124" t="s">
-        <v>249</v>
+        <v>547</v>
       </c>
       <c r="E124" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F124">
-        <v>22765912</v>
+        <v>22765906</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B125" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C125" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="D125" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="E125" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="F125">
-        <v>22765916</v>
+        <v>22765921</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B126" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C126" t="s">
-        <v>253</v>
+        <v>581</v>
       </c>
       <c r="D126" t="s">
-        <v>254</v>
+        <v>576</v>
       </c>
       <c r="E126" t="s">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="F126">
-        <v>22765915</v>
+        <v>22765913</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B127" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C127" t="s">
-        <v>487</v>
+        <v>244</v>
       </c>
       <c r="D127" t="s">
-        <v>589</v>
+        <v>245</v>
       </c>
       <c r="E127" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="F127">
-        <v>22765911</v>
+        <v>22765912</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="B128" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="C128" t="s">
-        <v>230</v>
+        <v>435</v>
       </c>
       <c r="D128" t="s">
-        <v>231</v>
+        <v>577</v>
       </c>
       <c r="E128" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="F128">
-        <v>22636622</v>
+        <v>22765916</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="B129" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="C129" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="D129" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="E129" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="F129">
-        <v>22636624</v>
+        <v>22765915</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="B130" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="C130" t="s">
-        <v>233</v>
+        <v>477</v>
       </c>
       <c r="D130" t="s">
-        <v>234</v>
+        <v>578</v>
       </c>
       <c r="E130" t="s">
-        <v>235</v>
+        <v>668</v>
       </c>
       <c r="F130">
-        <v>22636633</v>
+        <v>22765911</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B131" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C131" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D131" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E131" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F131">
-        <v>22636627</v>
+        <v>22636622</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B132" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C132" t="s">
         <v>222</v>
@@ -4972,387 +5146,387 @@
         <v>224</v>
       </c>
       <c r="F132">
-        <v>22636636</v>
+        <v>22636624</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B133" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C133" t="s">
-        <v>499</v>
+        <v>229</v>
       </c>
       <c r="D133" t="s">
-        <v>583</v>
+        <v>230</v>
       </c>
       <c r="E133" t="s">
-        <v>619</v>
+        <v>231</v>
       </c>
       <c r="F133">
-        <v>22636631</v>
+        <v>22636633</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B134" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C134" t="s">
-        <v>432</v>
+        <v>232</v>
       </c>
       <c r="D134" t="s">
-        <v>433</v>
+        <v>233</v>
       </c>
       <c r="E134" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F134">
-        <v>22636637</v>
+        <v>22636627</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>216</v>
+      </c>
+      <c r="B135" t="s">
+        <v>217</v>
+      </c>
+      <c r="C135" t="s">
+        <v>218</v>
+      </c>
+      <c r="D135" t="s">
+        <v>219</v>
+      </c>
+      <c r="E135" t="s">
         <v>220</v>
       </c>
-      <c r="B135" t="s">
-        <v>221</v>
-      </c>
-      <c r="C135" t="s">
-        <v>89</v>
-      </c>
-      <c r="D135" t="s">
-        <v>90</v>
-      </c>
-      <c r="E135" t="s">
-        <v>225</v>
-      </c>
       <c r="F135">
-        <v>22636634</v>
+        <v>22636636</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B136" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C136" t="s">
-        <v>213</v>
+        <v>489</v>
       </c>
       <c r="D136" t="s">
-        <v>214</v>
+        <v>572</v>
       </c>
       <c r="E136" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="F136">
-        <v>22636613</v>
+        <v>22636631</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B137" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C137" t="s">
-        <v>207</v>
+        <v>423</v>
       </c>
       <c r="D137" t="s">
-        <v>208</v>
+        <v>424</v>
       </c>
       <c r="E137" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="F137">
-        <v>22636608</v>
+        <v>22636637</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B138" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C138" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="D138" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E138" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F138">
-        <v>22636617</v>
+        <v>22636634</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B139" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C139" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D139" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E139" t="s">
-        <v>206</v>
+        <v>610</v>
       </c>
       <c r="F139">
-        <v>22636611</v>
+        <v>22636613</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B140" t="s">
+        <v>199</v>
+      </c>
+      <c r="C140" t="s">
         <v>203</v>
       </c>
-      <c r="C140" t="s">
-        <v>216</v>
-      </c>
       <c r="D140" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E140" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="F140">
-        <v>22636619</v>
+        <v>22636608</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B141" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C141" t="s">
-        <v>439</v>
+        <v>106</v>
       </c>
       <c r="D141" t="s">
-        <v>440</v>
+        <v>107</v>
       </c>
       <c r="E141" t="s">
         <v>215</v>
       </c>
       <c r="F141">
-        <v>22636615</v>
+        <v>22636617</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>198</v>
+      </c>
+      <c r="B142" t="s">
+        <v>199</v>
+      </c>
+      <c r="C142" t="s">
+        <v>200</v>
+      </c>
+      <c r="D142" t="s">
+        <v>201</v>
+      </c>
+      <c r="E142" t="s">
         <v>202</v>
       </c>
-      <c r="B142" t="s">
-        <v>203</v>
-      </c>
-      <c r="C142" t="s">
-        <v>210</v>
-      </c>
-      <c r="D142" t="s">
-        <v>211</v>
-      </c>
-      <c r="E142" t="s">
-        <v>212</v>
-      </c>
       <c r="F142">
-        <v>22636620</v>
+        <v>22636611</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B143" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="C143" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D143" t="s">
-        <v>579</v>
+        <v>213</v>
       </c>
       <c r="E143" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="F143">
-        <v>851008</v>
+        <v>22636619</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B144" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="C144" t="s">
-        <v>195</v>
+        <v>430</v>
       </c>
       <c r="D144" t="s">
-        <v>196</v>
+        <v>431</v>
       </c>
       <c r="E144" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F144">
-        <v>851012</v>
+        <v>22636615</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B145" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="C145" t="s">
-        <v>431</v>
+        <v>206</v>
       </c>
       <c r="D145" t="s">
-        <v>580</v>
+        <v>207</v>
       </c>
       <c r="E145" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="F145">
-        <v>851016</v>
+        <v>22636620</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B146" t="s">
+        <v>181</v>
+      </c>
+      <c r="C146" t="s">
         <v>184</v>
       </c>
-      <c r="C146" t="s">
-        <v>432</v>
-      </c>
       <c r="D146" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="E146" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F146">
-        <v>851019</v>
+        <v>851008</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B147" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C147" t="s">
-        <v>594</v>
+        <v>191</v>
       </c>
       <c r="D147" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E147" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F147">
-        <v>851022</v>
+        <v>851012</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B148" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C148" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D148" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="E148" t="s">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="F148">
-        <v>851034</v>
+        <v>851016</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B149" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C149" t="s">
-        <v>198</v>
+        <v>423</v>
       </c>
       <c r="D149" t="s">
-        <v>199</v>
+        <v>570</v>
       </c>
       <c r="E149" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="F149">
-        <v>851037</v>
+        <v>851019</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B150" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C150" t="s">
-        <v>185</v>
+        <v>583</v>
       </c>
       <c r="D150" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E150" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F150">
-        <v>851041</v>
+        <v>851022</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B151" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C151" t="s">
-        <v>192</v>
+        <v>420</v>
       </c>
       <c r="D151" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="E151" t="s">
-        <v>194</v>
+        <v>9</v>
       </c>
       <c r="F151">
-        <v>851044</v>
+        <v>851034</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -5363,16 +5537,16 @@
         <v>181</v>
       </c>
       <c r="C152" t="s">
-        <v>500</v>
+        <v>194</v>
       </c>
       <c r="D152" t="s">
-        <v>501</v>
+        <v>195</v>
       </c>
       <c r="E152" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="F152">
-        <v>29715513</v>
+        <v>851037</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -5383,904 +5557,904 @@
         <v>181</v>
       </c>
       <c r="C153" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="D153" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="E153" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
       <c r="F153">
-        <v>29715515</v>
+        <v>851041</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="B154" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C154" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D154" t="s">
-        <v>175</v>
+        <v>552</v>
       </c>
       <c r="E154" t="s">
-        <v>176</v>
+        <v>623</v>
       </c>
       <c r="F154">
-        <v>509005</v>
+        <v>851044</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="B155" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="C155" t="s">
-        <v>177</v>
+        <v>490</v>
       </c>
       <c r="D155" t="s">
-        <v>178</v>
+        <v>491</v>
       </c>
       <c r="E155" t="s">
         <v>179</v>
       </c>
       <c r="F155">
-        <v>509011</v>
+        <v>29715513</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="C156" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D156" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E156" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="F156">
-        <v>509019</v>
+        <v>29715515</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D157" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E157" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F157">
-        <v>509030</v>
+        <v>509005</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C158" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D158" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E158" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F158">
-        <v>509034</v>
+        <v>509011</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C159" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="D159" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="E159" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F159">
-        <v>509040</v>
+        <v>509019</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C160" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D160" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E160" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F160">
-        <v>509047</v>
+        <v>509030</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B161" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C161" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D161" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="E161" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F161">
-        <v>509053</v>
+        <v>509034</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B162" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C162" t="s">
-        <v>480</v>
+        <v>99</v>
       </c>
       <c r="D162" t="s">
-        <v>576</v>
+        <v>100</v>
       </c>
       <c r="E162" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="F162">
-        <v>27582770</v>
+        <v>509040</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B163" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C163" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D163" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E163" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="F163">
-        <v>27582772</v>
+        <v>509047</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>155</v>
+      </c>
+      <c r="B164" t="s">
+        <v>156</v>
+      </c>
+      <c r="C164" t="s">
+        <v>151</v>
+      </c>
+      <c r="D164" t="s">
         <v>152</v>
       </c>
-      <c r="B164" t="s">
-        <v>153</v>
-      </c>
-      <c r="C164" t="s">
-        <v>109</v>
-      </c>
-      <c r="D164" t="s">
-        <v>110</v>
-      </c>
       <c r="E164" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="F164">
-        <v>27582774</v>
+        <v>509053</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B165" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C165" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="D165" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E165" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="F165">
-        <v>27582776</v>
+        <v>27582770</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B166" t="s">
+        <v>150</v>
+      </c>
+      <c r="C166" t="s">
         <v>153</v>
       </c>
-      <c r="C166" t="s">
-        <v>101</v>
-      </c>
       <c r="D166" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="E166" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F166">
-        <v>27582778</v>
+        <v>27582772</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B167" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C167" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="D167" t="s">
-        <v>577</v>
+        <v>107</v>
       </c>
       <c r="E167" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F167">
-        <v>27582780</v>
+        <v>27582774</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B168" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C168" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D168" t="s">
-        <v>436</v>
+        <v>560</v>
       </c>
       <c r="E168" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F168">
-        <v>27582782</v>
+        <v>27582776</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B169" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C169" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D169" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E169" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F169">
-        <v>27582784</v>
+        <v>27582778</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B170" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C170" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D170" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="E170" t="s">
         <v>87</v>
       </c>
       <c r="F170">
-        <v>27582788</v>
+        <v>27582780</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B171" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C171" t="s">
-        <v>85</v>
+        <v>426</v>
       </c>
       <c r="D171" t="s">
-        <v>86</v>
+        <v>427</v>
       </c>
       <c r="E171" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F171">
-        <v>27582792</v>
+        <v>27582782</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B172" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C172" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D172" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E172" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F172">
-        <v>27582796</v>
+        <v>27582784</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B173" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C173" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D173" t="s">
-        <v>149</v>
+        <v>567</v>
       </c>
       <c r="E173" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="F173">
-        <v>28219110</v>
+        <v>27582788</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B174" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C174" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="D174" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="E174" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="F174">
-        <v>28219112</v>
+        <v>27582792</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B175" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C175" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="D175" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E175" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="F175">
-        <v>28219114</v>
+        <v>27582796</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B176" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C176" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D176" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E176" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F176">
-        <v>28219116</v>
+        <v>28219110</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>130</v>
+      </c>
+      <c r="B177" t="s">
+        <v>131</v>
+      </c>
+      <c r="C177" t="s">
+        <v>132</v>
+      </c>
+      <c r="D177" t="s">
         <v>133</v>
       </c>
-      <c r="B177" t="s">
+      <c r="E177" t="s">
         <v>134</v>
       </c>
-      <c r="C177" t="s">
-        <v>138</v>
-      </c>
-      <c r="D177" t="s">
-        <v>139</v>
-      </c>
-      <c r="E177" t="s">
-        <v>140</v>
-      </c>
       <c r="F177">
-        <v>28219118</v>
+        <v>28219112</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B178" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C178" t="s">
-        <v>437</v>
+        <v>138</v>
       </c>
       <c r="D178" t="s">
-        <v>438</v>
+        <v>139</v>
       </c>
       <c r="E178" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F178">
-        <v>28219120</v>
+        <v>28219114</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B179" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C179" t="s">
-        <v>502</v>
+        <v>141</v>
       </c>
       <c r="D179" t="s">
-        <v>503</v>
+        <v>142</v>
       </c>
       <c r="E179" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F179">
-        <v>28219122</v>
+        <v>28219116</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>130</v>
+      </c>
+      <c r="B180" t="s">
         <v>131</v>
       </c>
-      <c r="B180" t="s">
-        <v>132</v>
-      </c>
       <c r="C180" t="s">
-        <v>434</v>
+        <v>135</v>
       </c>
       <c r="D180" t="s">
-        <v>506</v>
+        <v>136</v>
       </c>
       <c r="E180" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="F180">
-        <v>34002876</v>
+        <v>28219118</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>130</v>
+      </c>
+      <c r="B181" t="s">
         <v>131</v>
       </c>
-      <c r="B181" t="s">
-        <v>132</v>
-      </c>
       <c r="C181" t="s">
-        <v>104</v>
+        <v>428</v>
       </c>
       <c r="D181" t="s">
-        <v>105</v>
+        <v>429</v>
       </c>
       <c r="E181" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="F181">
-        <v>34002877</v>
+        <v>28219120</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>130</v>
+      </c>
+      <c r="B182" t="s">
         <v>131</v>
       </c>
-      <c r="B182" t="s">
-        <v>132</v>
-      </c>
       <c r="C182" t="s">
-        <v>109</v>
+        <v>492</v>
       </c>
       <c r="D182" t="s">
-        <v>110</v>
+        <v>493</v>
       </c>
       <c r="E182" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="F182">
-        <v>34002878</v>
+        <v>28219122</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B183" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C183" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="D183" t="s">
-        <v>569</v>
+        <v>496</v>
       </c>
       <c r="E183" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="F183">
-        <v>34002879</v>
+        <v>34002876</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B184" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C184" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D184" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E184" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F184">
-        <v>34002880</v>
+        <v>34002877</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B185" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C185" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="D185" t="s">
-        <v>507</v>
+        <v>107</v>
       </c>
       <c r="E185" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F185">
-        <v>34002881</v>
+        <v>34002878</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B186" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C186" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D186" t="s">
-        <v>508</v>
+        <v>559</v>
       </c>
       <c r="E186" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F186">
-        <v>34002882</v>
+        <v>34002879</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B187" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C187" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D187" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E187" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F187">
-        <v>34002883</v>
+        <v>34002880</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B188" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C188" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="D188" t="s">
-        <v>86</v>
+        <v>497</v>
       </c>
       <c r="E188" t="s">
         <v>87</v>
       </c>
       <c r="F188">
-        <v>34002884</v>
+        <v>34002881</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B189" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C189" t="s">
-        <v>94</v>
+        <v>426</v>
       </c>
       <c r="D189" t="s">
-        <v>95</v>
+        <v>498</v>
       </c>
       <c r="E189" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F189">
-        <v>34002885</v>
+        <v>34002882</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B190" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C190" t="s">
-        <v>593</v>
+        <v>88</v>
       </c>
       <c r="D190" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E190" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F190">
-        <v>34002886</v>
+        <v>34002883</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B191" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C191" t="s">
-        <v>437</v>
+        <v>84</v>
       </c>
       <c r="D191" t="s">
-        <v>571</v>
+        <v>85</v>
       </c>
       <c r="E191" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F191">
-        <v>34002887</v>
+        <v>34002884</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B192" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C192" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D192" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E192" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F192">
-        <v>34002871</v>
+        <v>34002885</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B193" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C193" t="s">
-        <v>441</v>
+        <v>582</v>
       </c>
       <c r="D193" t="s">
-        <v>572</v>
+        <v>97</v>
       </c>
       <c r="E193" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F193">
-        <v>34002873</v>
+        <v>34002886</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B194" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C194" t="s">
-        <v>125</v>
+        <v>428</v>
       </c>
       <c r="D194" t="s">
-        <v>126</v>
+        <v>561</v>
       </c>
       <c r="E194" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="F194">
-        <v>33991784</v>
+        <v>34002887</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B195" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C195" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="D195" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="E195" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="F195">
-        <v>33991807</v>
+        <v>34002871</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B196" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C196" t="s">
-        <v>82</v>
+        <v>432</v>
       </c>
       <c r="D196" t="s">
-        <v>83</v>
+        <v>562</v>
       </c>
       <c r="E196" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="F196">
-        <v>33991810</v>
+        <v>34002873</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B197" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C197" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D197" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E197" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F197">
-        <v>33991812</v>
+        <v>33991784</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B198" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C198" t="s">
         <v>119</v>
@@ -6292,107 +6466,107 @@
         <v>121</v>
       </c>
       <c r="F198">
-        <v>34003789</v>
+        <v>33991807</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>109</v>
+      </c>
+      <c r="B199" t="s">
+        <v>110</v>
+      </c>
+      <c r="C199" t="s">
+        <v>82</v>
+      </c>
+      <c r="D199" t="s">
+        <v>83</v>
+      </c>
+      <c r="E199" t="s">
         <v>112</v>
       </c>
-      <c r="B199" t="s">
-        <v>113</v>
-      </c>
-      <c r="C199" t="s">
-        <v>504</v>
-      </c>
-      <c r="D199" t="s">
-        <v>505</v>
-      </c>
-      <c r="E199" t="s">
-        <v>114</v>
-      </c>
       <c r="F199">
-        <v>34003791</v>
+        <v>33991810</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B200" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C200" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D200" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E200" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F200">
-        <v>34003794</v>
+        <v>33991812</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B201" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C201" t="s">
-        <v>434</v>
+        <v>116</v>
       </c>
       <c r="D201" t="s">
-        <v>506</v>
+        <v>117</v>
       </c>
       <c r="E201" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="F201">
-        <v>529391906</v>
+        <v>34003789</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B202" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C202" t="s">
-        <v>104</v>
+        <v>494</v>
       </c>
       <c r="D202" t="s">
-        <v>105</v>
+        <v>495</v>
       </c>
       <c r="E202" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F202">
-        <v>529391907</v>
+        <v>34003791</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B203" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C203" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D203" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E203" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F203">
-        <v>529391908</v>
+        <v>34003794</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -6403,16 +6577,16 @@
         <v>76</v>
       </c>
       <c r="C204" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D204" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="E204" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F204">
-        <v>529391909</v>
+        <v>561307021</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -6423,1076 +6597,1116 @@
         <v>76</v>
       </c>
       <c r="C205" t="s">
-        <v>101</v>
+        <v>436</v>
       </c>
       <c r="D205" t="s">
-        <v>102</v>
+        <v>564</v>
       </c>
       <c r="E205" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F205">
-        <v>529391910</v>
+        <v>561307037</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B206" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C206" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="D206" t="s">
-        <v>507</v>
+        <v>58</v>
       </c>
       <c r="E206" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="F206">
-        <v>529391911</v>
+        <v>477215246</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B207" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C207" t="s">
-        <v>435</v>
+        <v>60</v>
       </c>
       <c r="D207" t="s">
-        <v>508</v>
+        <v>61</v>
       </c>
       <c r="E207" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="F207">
-        <v>529391912</v>
+        <v>477215248</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B208" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C208" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D208" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="E208" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F208">
-        <v>529391913</v>
+        <v>477215250</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B209" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C209" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D209" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="E209" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="F209">
-        <v>529391915</v>
+        <v>497463990</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B210" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C210" t="s">
-        <v>593</v>
+        <v>63</v>
       </c>
       <c r="D210" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="E210" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="F210">
-        <v>529391916</v>
+        <v>497463992</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B211" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C211" t="s">
-        <v>437</v>
+        <v>69</v>
       </c>
       <c r="D211" t="s">
-        <v>571</v>
+        <v>70</v>
       </c>
       <c r="E211" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="F211">
-        <v>529391917</v>
+        <v>497463994</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B212" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C212" t="s">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="D212" t="s">
-        <v>80</v>
+        <v>558</v>
       </c>
       <c r="E212" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F212">
-        <v>529391918</v>
+        <v>497463996</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B213" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C213" t="s">
-        <v>108</v>
-      </c>
-      <c r="D213" t="s">
-        <v>572</v>
+        <v>660</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>661</v>
       </c>
       <c r="E213" t="s">
         <v>50</v>
       </c>
       <c r="F213">
-        <v>529391919</v>
+        <v>1300452648</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B214" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C214" t="s">
-        <v>444</v>
+        <v>48</v>
       </c>
       <c r="D214" t="s">
-        <v>446</v>
+        <v>49</v>
       </c>
       <c r="E214" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="F214">
-        <v>529391920</v>
+        <v>1300423634</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B215" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C215" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D215" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E215" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="F215">
-        <v>561307043</v>
+        <v>1300452649</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B216" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C216" t="s">
-        <v>443</v>
+        <v>53</v>
       </c>
       <c r="D216" t="s">
-        <v>573</v>
+        <v>54</v>
       </c>
       <c r="E216" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F216">
-        <v>561307045</v>
+        <v>1300595620</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B217" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C217" t="s">
-        <v>413</v>
+        <v>36</v>
       </c>
       <c r="D217" t="s">
-        <v>567</v>
+        <v>37</v>
       </c>
       <c r="E217" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="F217">
-        <v>529391923</v>
+        <v>1381562764</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B218" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C218" t="s">
-        <v>442</v>
+        <v>33</v>
       </c>
       <c r="D218" t="s">
-        <v>574</v>
+        <v>34</v>
       </c>
       <c r="E218" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="F218">
-        <v>561307021</v>
+        <v>1381564337</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B219" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C219" t="s">
-        <v>445</v>
+        <v>39</v>
       </c>
       <c r="D219" t="s">
-        <v>575</v>
+        <v>40</v>
       </c>
       <c r="E219" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="F219">
-        <v>561307037</v>
+        <v>1381562765</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B220" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C220" t="s">
-        <v>57</v>
+        <v>500</v>
       </c>
       <c r="D220" t="s">
-        <v>58</v>
+        <v>501</v>
       </c>
       <c r="E220" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F220">
-        <v>477215246</v>
+        <v>1384324154</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B221" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C221" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D221" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E221" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F221">
-        <v>477215248</v>
+        <v>1384324156</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B222" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C222" t="s">
-        <v>66</v>
+        <v>502</v>
       </c>
       <c r="D222" t="s">
-        <v>67</v>
+        <v>503</v>
       </c>
       <c r="E222" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F222">
-        <v>477215250</v>
+        <v>1384318412</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C223" t="s">
-        <v>72</v>
+        <v>504</v>
       </c>
       <c r="D223" t="s">
-        <v>73</v>
+        <v>505</v>
       </c>
       <c r="E223" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="F223">
-        <v>497463990</v>
+        <v>1384324244</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>55</v>
+        <v>522</v>
       </c>
       <c r="B224" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D224" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E224" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="F224">
-        <v>497463992</v>
+        <v>30854133</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>55</v>
+        <v>522</v>
       </c>
       <c r="B225" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="D225" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="E225" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="F225">
-        <v>497463994</v>
+        <v>30854134</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>55</v>
+        <v>522</v>
       </c>
       <c r="B226" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>509</v>
+        <v>10</v>
       </c>
       <c r="D226" t="s">
-        <v>568</v>
+        <v>11</v>
       </c>
       <c r="E226" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="F226">
-        <v>497463996</v>
+        <v>30854137</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>46</v>
+        <v>522</v>
       </c>
       <c r="B227" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>48</v>
+        <v>506</v>
       </c>
       <c r="D227" t="s">
-        <v>49</v>
+        <v>507</v>
       </c>
       <c r="E227" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F227">
-        <v>1300423634</v>
+        <v>30854138</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>46</v>
+        <v>522</v>
       </c>
       <c r="B228" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D228" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E228" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F228">
-        <v>1300452649</v>
+        <v>30854142</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>46</v>
+        <v>522</v>
       </c>
       <c r="B229" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
-        <v>53</v>
+        <v>508</v>
       </c>
       <c r="D229" t="s">
-        <v>54</v>
+        <v>509</v>
       </c>
       <c r="E229" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F229">
-        <v>1300595620</v>
+        <v>30854146</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>29</v>
+        <v>522</v>
       </c>
       <c r="B230" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
-        <v>36</v>
+        <v>420</v>
       </c>
       <c r="D230" t="s">
-        <v>37</v>
+        <v>421</v>
       </c>
       <c r="E230" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="F230">
-        <v>1381562764</v>
+        <v>30854151</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>29</v>
+        <v>522</v>
       </c>
       <c r="B231" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C231" t="s">
-        <v>33</v>
+        <v>510</v>
       </c>
       <c r="D231" t="s">
-        <v>34</v>
+        <v>511</v>
       </c>
       <c r="E231" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F231">
-        <v>1381564337</v>
+        <v>30854182</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>29</v>
+        <v>522</v>
       </c>
       <c r="B232" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C232" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D232" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E232" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F232">
-        <v>1381562765</v>
+        <v>30854183</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>29</v>
+        <v>522</v>
       </c>
       <c r="B233" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C233" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D233" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E233" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F233">
-        <v>1384324154</v>
+        <v>30854184</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>29</v>
+        <v>522</v>
       </c>
       <c r="B234" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C234" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="D234" t="s">
-        <v>43</v>
+        <v>514</v>
       </c>
       <c r="E234" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F234">
-        <v>1384324156</v>
+        <v>30854185</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>29</v>
+        <v>522</v>
       </c>
       <c r="B235" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C235" t="s">
-        <v>512</v>
+        <v>25</v>
       </c>
       <c r="D235" t="s">
-        <v>513</v>
+        <v>26</v>
       </c>
       <c r="E235" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F235">
-        <v>1384318412</v>
+        <v>30854188</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>29</v>
+        <v>522</v>
       </c>
       <c r="B236" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C236" t="s">
-        <v>514</v>
+        <v>584</v>
       </c>
       <c r="D236" t="s">
-        <v>515</v>
+        <v>584</v>
       </c>
       <c r="E236" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F236">
-        <v>1384324244</v>
+        <v>30854186</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C237" t="s">
-        <v>14</v>
+        <v>515</v>
       </c>
       <c r="D237" t="s">
-        <v>15</v>
+        <v>516</v>
       </c>
       <c r="E237" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F237">
-        <v>30854133</v>
+        <v>30854187</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C238" t="s">
-        <v>17</v>
+        <v>517</v>
       </c>
       <c r="D238" t="s">
-        <v>18</v>
+        <v>518</v>
       </c>
       <c r="E238" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F238">
-        <v>30854134</v>
+        <v>30854189</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C239" t="s">
-        <v>10</v>
+        <v>519</v>
       </c>
       <c r="D239" t="s">
-        <v>11</v>
+        <v>520</v>
       </c>
       <c r="E239" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F239">
-        <v>30854137</v>
+        <v>30854190</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>592</v>
       </c>
       <c r="C240" t="s">
-        <v>516</v>
+        <v>646</v>
       </c>
       <c r="D240" t="s">
-        <v>517</v>
+        <v>645</v>
       </c>
       <c r="E240" t="s">
-        <v>13</v>
+        <v>598</v>
       </c>
       <c r="F240">
-        <v>30854138</v>
+        <v>29715584</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>592</v>
       </c>
       <c r="C241" t="s">
-        <v>6</v>
+        <v>599</v>
       </c>
       <c r="D241" t="s">
-        <v>7</v>
+        <v>593</v>
       </c>
       <c r="E241" t="s">
-        <v>8</v>
-      </c>
-      <c r="F241">
-        <v>30854142</v>
+        <v>598</v>
+      </c>
+      <c r="F241" s="1">
+        <v>29715585</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>592</v>
       </c>
       <c r="C242" t="s">
-        <v>518</v>
+        <v>600</v>
       </c>
       <c r="D242" t="s">
-        <v>519</v>
+        <v>594</v>
       </c>
       <c r="E242" t="s">
-        <v>20</v>
-      </c>
-      <c r="F242">
-        <v>30854146</v>
+        <v>598</v>
+      </c>
+      <c r="F242" s="1">
+        <v>29715586</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>532</v>
+        <v>644</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>592</v>
       </c>
       <c r="C243" t="s">
-        <v>429</v>
+        <v>601</v>
       </c>
       <c r="D243" t="s">
-        <v>430</v>
+        <v>595</v>
       </c>
       <c r="E243" t="s">
-        <v>9</v>
+        <v>598</v>
       </c>
       <c r="F243">
-        <v>30854151</v>
+        <v>29715587</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>532</v>
+        <v>644</v>
       </c>
       <c r="B244" t="s">
-        <v>21</v>
+        <v>592</v>
       </c>
       <c r="C244" t="s">
-        <v>520</v>
+        <v>602</v>
       </c>
       <c r="D244" t="s">
-        <v>521</v>
+        <v>596</v>
       </c>
       <c r="E244" t="s">
-        <v>22</v>
+        <v>598</v>
       </c>
       <c r="F244">
-        <v>30854182</v>
+        <v>29715588</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>532</v>
+        <v>644</v>
       </c>
       <c r="B245" t="s">
-        <v>21</v>
+        <v>592</v>
       </c>
       <c r="C245" t="s">
-        <v>24</v>
+        <v>632</v>
       </c>
       <c r="D245" t="s">
-        <v>24</v>
+        <v>597</v>
       </c>
       <c r="E245" t="s">
-        <v>12</v>
+        <v>603</v>
       </c>
       <c r="F245">
-        <v>30854183</v>
+        <v>29715589</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>532</v>
+        <v>605</v>
       </c>
       <c r="B246" t="s">
-        <v>21</v>
+        <v>606</v>
       </c>
       <c r="C246" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="D246" t="s">
-        <v>523</v>
+        <v>607</v>
       </c>
       <c r="E246" t="s">
-        <v>19</v>
+        <v>609</v>
       </c>
       <c r="F246">
-        <v>30854184</v>
+        <v>29710956</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>532</v>
+        <v>612</v>
       </c>
       <c r="B247" t="s">
-        <v>21</v>
+        <v>611</v>
       </c>
       <c r="C247" t="s">
-        <v>524</v>
+        <v>615</v>
       </c>
       <c r="D247" t="s">
-        <v>524</v>
+        <v>613</v>
       </c>
       <c r="E247" t="s">
-        <v>16</v>
+        <v>614</v>
       </c>
       <c r="F247">
-        <v>30854185</v>
+        <v>468513480</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>532</v>
+        <v>612</v>
       </c>
       <c r="B248" t="s">
-        <v>21</v>
+        <v>628</v>
       </c>
       <c r="C248" t="s">
-        <v>25</v>
+        <v>617</v>
       </c>
       <c r="D248" t="s">
-        <v>26</v>
+        <v>616</v>
       </c>
       <c r="E248" t="s">
-        <v>13</v>
+        <v>625</v>
       </c>
       <c r="F248">
-        <v>30854188</v>
+        <v>29710940</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>532</v>
+        <v>612</v>
       </c>
       <c r="B249" t="s">
-        <v>21</v>
+        <v>628</v>
       </c>
       <c r="C249" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
       <c r="D249" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="E249" t="s">
-        <v>8</v>
+        <v>626</v>
       </c>
       <c r="F249">
-        <v>30854186</v>
+        <v>29710941</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>532</v>
+        <v>612</v>
       </c>
       <c r="B250" t="s">
-        <v>21</v>
+        <v>628</v>
       </c>
       <c r="C250" t="s">
-        <v>525</v>
+        <v>621</v>
       </c>
       <c r="D250" t="s">
-        <v>526</v>
+        <v>620</v>
       </c>
       <c r="E250" t="s">
-        <v>23</v>
+        <v>627</v>
       </c>
       <c r="F250">
-        <v>30854187</v>
+        <v>29710942</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>532</v>
+        <v>629</v>
       </c>
       <c r="B251" t="s">
-        <v>21</v>
+        <v>630</v>
       </c>
       <c r="C251" t="s">
-        <v>527</v>
+        <v>633</v>
       </c>
       <c r="D251" t="s">
-        <v>528</v>
+        <v>631</v>
       </c>
       <c r="E251" t="s">
-        <v>28</v>
+        <v>634</v>
       </c>
       <c r="F251">
-        <v>30854189</v>
+        <v>29710959</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>532</v>
+        <v>635</v>
       </c>
       <c r="B252" t="s">
-        <v>21</v>
+        <v>638</v>
       </c>
       <c r="C252" t="s">
-        <v>529</v>
+        <v>636</v>
       </c>
       <c r="D252" t="s">
-        <v>530</v>
+        <v>637</v>
       </c>
       <c r="E252" t="s">
-        <v>27</v>
+        <v>639</v>
       </c>
       <c r="F252">
-        <v>30854190</v>
+        <v>22765949</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>602</v>
+        <v>635</v>
       </c>
       <c r="B253" t="s">
-        <v>603</v>
+        <v>640</v>
       </c>
       <c r="C253" t="s">
-        <v>613</v>
+        <v>642</v>
       </c>
       <c r="D253" t="s">
-        <v>607</v>
+        <v>641</v>
       </c>
       <c r="E253" t="s">
-        <v>612</v>
-      </c>
-      <c r="F253" s="1">
-        <v>29715585</v>
+        <v>643</v>
+      </c>
+      <c r="F253">
+        <v>22766029</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>604</v>
+        <v>635</v>
       </c>
       <c r="B254" t="s">
-        <v>603</v>
+        <v>640</v>
       </c>
       <c r="C254" t="s">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="D254" t="s">
-        <v>608</v>
+        <v>664</v>
       </c>
       <c r="E254" t="s">
-        <v>612</v>
-      </c>
-      <c r="F254" s="1">
-        <v>29715586</v>
+        <v>667</v>
+      </c>
+      <c r="F254">
+        <v>22766028</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="B255" t="s">
-        <v>603</v>
+        <v>640</v>
       </c>
       <c r="C255" t="s">
-        <v>615</v>
+        <v>666</v>
       </c>
       <c r="D255" t="s">
-        <v>609</v>
+        <v>665</v>
       </c>
       <c r="E255" t="s">
-        <v>612</v>
+        <v>667</v>
       </c>
       <c r="F255">
-        <v>29715587</v>
+        <v>22766019</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>180</v>
+        <v>647</v>
       </c>
       <c r="B256" t="s">
-        <v>603</v>
+        <v>648</v>
       </c>
       <c r="C256" t="s">
-        <v>616</v>
+        <v>649</v>
       </c>
       <c r="D256" t="s">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="E256" t="s">
-        <v>612</v>
-      </c>
-      <c r="F256">
-        <v>29715588</v>
+        <v>659</v>
+      </c>
+      <c r="F256" s="1">
+        <v>28941725</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>606</v>
+        <v>647</v>
       </c>
       <c r="B257" t="s">
-        <v>603</v>
+        <v>648</v>
       </c>
       <c r="C257" t="s">
-        <v>617</v>
-      </c>
-      <c r="D257" t="s">
-        <v>611</v>
+        <v>651</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>652</v>
       </c>
       <c r="E257" t="s">
-        <v>618</v>
-      </c>
-      <c r="F257">
-        <v>29715589</v>
+        <v>659</v>
+      </c>
+      <c r="F257" s="1">
+        <v>28941726</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
       <c r="B258" t="s">
-        <v>621</v>
+        <v>648</v>
       </c>
       <c r="C258" t="s">
-        <v>623</v>
-      </c>
-      <c r="D258" t="s">
-        <v>622</v>
+        <v>653</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="E258" t="s">
-        <v>624</v>
-      </c>
-      <c r="F258">
-        <v>29710956</v>
+        <v>659</v>
+      </c>
+      <c r="F258" s="1">
+        <v>28941727</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>647</v>
+      </c>
+      <c r="B259" t="s">
+        <v>648</v>
+      </c>
+      <c r="C259" t="s">
+        <v>655</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="E259" t="s">
+        <v>659</v>
+      </c>
+      <c r="F259" s="1">
+        <v>28941728</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>647</v>
+      </c>
+      <c r="B260" t="s">
+        <v>648</v>
+      </c>
+      <c r="C260" t="s">
+        <v>657</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E260" t="s">
+        <v>659</v>
+      </c>
+      <c r="F260" s="1">
+        <v>28941729</v>
       </c>
     </row>
   </sheetData>

--- a/本地版/角色曲列表.xlsx
+++ b/本地版/角色曲列表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\本地版\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-workspace\TouHou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7B985C-153C-4E1F-A5B3-F80DCC1E5F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF618E8-D532-46CD-9625-D1530F334461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$235</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="674">
   <si>
     <t>作品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,9 +232,6 @@
     <t>クレイジーバックダンサーズ</t>
   </si>
   <si>
-    <t>丁礼田舞&amp;尔子田里乃</t>
-  </si>
-  <si>
     <t>一对的神兽</t>
   </si>
   <si>
@@ -372,717 +369,711 @@
     <t>時代親父とハイカラ少女</t>
   </si>
   <si>
+    <t>TH15</t>
+  </si>
+  <si>
+    <t>东方绀珠传</t>
+  </si>
+  <si>
+    <t>纯狐</t>
+  </si>
+  <si>
+    <t>哆来咪·苏伊特</t>
+  </si>
+  <si>
+    <t>Pandemonic Planet</t>
+  </si>
+  <si>
+    <t>パンデモニックプラネット</t>
+  </si>
+  <si>
+    <t>赫卡提亚·拉碧斯拉祖利</t>
+  </si>
+  <si>
+    <t>星条旗的小丑</t>
+  </si>
+  <si>
+    <t>星条旗のピエロ</t>
+  </si>
+  <si>
+    <t>克劳恩皮丝</t>
+  </si>
+  <si>
+    <t>九月的南瓜</t>
+  </si>
+  <si>
+    <t>九月のパンプキン</t>
+  </si>
+  <si>
+    <t>铃瑚</t>
+  </si>
+  <si>
+    <t>兔已着陆</t>
+  </si>
+  <si>
+    <t>兎は舞い降りた</t>
+  </si>
+  <si>
+    <t>清兰</t>
+  </si>
+  <si>
+    <t>逆转的命运之轮</t>
+  </si>
+  <si>
+    <t>逆転するホイールオブフォーチュン</t>
+  </si>
+  <si>
+    <t>稀神探女</t>
+  </si>
+  <si>
+    <t>TH14.5</t>
+  </si>
+  <si>
+    <t>东方深秘录</t>
+  </si>
+  <si>
+    <t>TH14</t>
+  </si>
+  <si>
+    <t>东方辉针城</t>
+  </si>
+  <si>
+    <t>柳树下的杜拉罕</t>
+  </si>
+  <si>
+    <t>柳の下のデュラハン</t>
+  </si>
+  <si>
+    <t>赤蛮奇</t>
+  </si>
+  <si>
+    <t>Reverse Ideology</t>
+  </si>
+  <si>
+    <t>リバースイデオロギー</t>
+  </si>
+  <si>
+    <t>鬼人正邪</t>
+  </si>
+  <si>
+    <t>孤独的狼人</t>
+  </si>
+  <si>
+    <t>孤独なウェアウルフ</t>
+  </si>
+  <si>
+    <t>今泉影狼</t>
+  </si>
+  <si>
+    <t>幻想净琉璃</t>
+  </si>
+  <si>
+    <t>幻想浄瑠璃</t>
+  </si>
+  <si>
+    <t>堀川雷鼓</t>
+  </si>
+  <si>
+    <t>秘境的人鱼</t>
+  </si>
+  <si>
+    <t>秘境のマーメイド</t>
+  </si>
+  <si>
+    <t>若鹭姬</t>
+  </si>
+  <si>
+    <t>少名针妙丸</t>
+  </si>
+  <si>
+    <t>TH13.5</t>
+  </si>
+  <si>
+    <t>东方心绮楼</t>
+  </si>
+  <si>
+    <t>佐渡的二岩</t>
+  </si>
+  <si>
+    <t>佐渡の二ッ岩</t>
+  </si>
+  <si>
+    <t>Magus Night</t>
+  </si>
+  <si>
+    <t>メイガスナイト</t>
+  </si>
+  <si>
+    <t>TH13</t>
+  </si>
+  <si>
+    <t>东方神灵庙</t>
+  </si>
+  <si>
+    <t>二岩猯藏</t>
+  </si>
+  <si>
+    <t>圣德传说 ～ True Administrator</t>
+  </si>
+  <si>
+    <t>聖徳伝説 ～ True Administrator</t>
+  </si>
+  <si>
+    <t>丰聪耳神子</t>
+  </si>
+  <si>
+    <t>Rigid Paradise</t>
+  </si>
+  <si>
+    <t>リジッドパラダイス</t>
+  </si>
+  <si>
+    <t>宫古芳香</t>
+  </si>
+  <si>
+    <t>古老的元神</t>
+  </si>
+  <si>
+    <t>古きユアンシェン</t>
+  </si>
+  <si>
+    <t>霍青娥</t>
+  </si>
+  <si>
+    <t>梦殿大祀庙</t>
+  </si>
+  <si>
+    <t>夢殿大祀廟</t>
+  </si>
+  <si>
+    <t>苏我屠自古</t>
+  </si>
+  <si>
+    <t>物部布都</t>
+  </si>
+  <si>
+    <t>Ghost Lead</t>
+  </si>
+  <si>
+    <t>ゴーストリード</t>
+  </si>
+  <si>
+    <t>西行寺幽幽子</t>
+  </si>
+  <si>
+    <t>门前的妖怪小姑娘</t>
+  </si>
+  <si>
+    <t>門前の妖怪小娘</t>
+  </si>
+  <si>
+    <t>幽谷响子</t>
+  </si>
+  <si>
+    <t>TH12.8</t>
+  </si>
+  <si>
+    <t>妖精大战争</t>
+  </si>
+  <si>
+    <t>光之三妖精</t>
+  </si>
+  <si>
+    <t>TH12.3</t>
+  </si>
+  <si>
+    <t>东方非想天则</t>
+  </si>
+  <si>
+    <t>the Grimoire of Alice</t>
+  </si>
+  <si>
+    <t>爱丽丝·玛格特洛依德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信仰是为了虚幻之人</t>
+  </si>
+  <si>
+    <t>信仰は儚き人間の為に</t>
+  </si>
+  <si>
+    <t>东风谷早苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红美铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵乌路空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴瓦鲁魔法图书馆</t>
+  </si>
+  <si>
+    <t>ヴワル魔法図書館</t>
+  </si>
+  <si>
+    <t>活泼的纯情小姑娘</t>
+  </si>
+  <si>
+    <t>おてんば恋娘</t>
+  </si>
+  <si>
+    <t>琪露诺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋色Magic</t>
+  </si>
+  <si>
+    <t>恋色マジック</t>
+  </si>
+  <si>
+    <t>明日ハレの日、ケの昨日</t>
+  </si>
+  <si>
+    <t>洩矢诹访子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH12</t>
+  </si>
+  <si>
+    <t>东方星莲船</t>
+  </si>
+  <si>
+    <t>Captain Murasa</t>
+  </si>
+  <si>
+    <t>キャプテン・ムラサ</t>
+  </si>
+  <si>
+    <t>村纱水蜜</t>
+  </si>
+  <si>
+    <t>请注意万年备用伞</t>
+  </si>
+  <si>
+    <t>万年置き傘にご注意を</t>
+  </si>
+  <si>
+    <t>多多良小伞</t>
+  </si>
+  <si>
+    <t>平安时代的外星人</t>
+  </si>
+  <si>
+    <t>平安のエイリアン</t>
+  </si>
+  <si>
+    <t>封兽鵺</t>
+  </si>
+  <si>
+    <t>小小的贤将</t>
+  </si>
+  <si>
+    <t>小さな小さな賢将</t>
+  </si>
+  <si>
+    <t>圣白莲</t>
+  </si>
+  <si>
+    <t>虎纹的毘沙门天</t>
+  </si>
+  <si>
+    <t>虎柄の毘沙門天</t>
+  </si>
+  <si>
+    <t>寅丸星</t>
+  </si>
+  <si>
     <t>云居一轮&amp;云山</t>
-  </si>
-  <si>
-    <t>TH15</t>
-  </si>
-  <si>
-    <t>东方绀珠传</t>
-  </si>
-  <si>
-    <t>纯狐</t>
-  </si>
-  <si>
-    <t>哆来咪·苏伊特</t>
-  </si>
-  <si>
-    <t>Pandemonic Planet</t>
-  </si>
-  <si>
-    <t>パンデモニックプラネット</t>
-  </si>
-  <si>
-    <t>赫卡提亚·拉碧斯拉祖利</t>
-  </si>
-  <si>
-    <t>星条旗的小丑</t>
-  </si>
-  <si>
-    <t>星条旗のピエロ</t>
-  </si>
-  <si>
-    <t>克劳恩皮丝</t>
-  </si>
-  <si>
-    <t>九月的南瓜</t>
-  </si>
-  <si>
-    <t>九月のパンプキン</t>
-  </si>
-  <si>
-    <t>铃瑚</t>
-  </si>
-  <si>
-    <t>兔已着陆</t>
-  </si>
-  <si>
-    <t>兎は舞い降りた</t>
-  </si>
-  <si>
-    <t>清兰</t>
-  </si>
-  <si>
-    <t>逆转的命运之轮</t>
-  </si>
-  <si>
-    <t>逆転するホイールオブフォーチュン</t>
-  </si>
-  <si>
-    <t>稀神探女</t>
-  </si>
-  <si>
-    <t>TH14.5</t>
-  </si>
-  <si>
-    <t>东方深秘录</t>
-  </si>
-  <si>
-    <t>TH14</t>
-  </si>
-  <si>
-    <t>东方辉针城</t>
-  </si>
-  <si>
-    <t>柳树下的杜拉罕</t>
-  </si>
-  <si>
-    <t>柳の下のデュラハン</t>
-  </si>
-  <si>
-    <t>赤蛮奇</t>
-  </si>
-  <si>
-    <t>Reverse Ideology</t>
-  </si>
-  <si>
-    <t>リバースイデオロギー</t>
-  </si>
-  <si>
-    <t>鬼人正邪</t>
-  </si>
-  <si>
-    <t>孤独的狼人</t>
-  </si>
-  <si>
-    <t>孤独なウェアウルフ</t>
-  </si>
-  <si>
-    <t>今泉影狼</t>
-  </si>
-  <si>
-    <t>幻想净琉璃</t>
-  </si>
-  <si>
-    <t>幻想浄瑠璃</t>
-  </si>
-  <si>
-    <t>九十九弁弁＆九十九八桥</t>
-  </si>
-  <si>
-    <t>堀川雷鼓</t>
-  </si>
-  <si>
-    <t>秘境的人鱼</t>
-  </si>
-  <si>
-    <t>秘境のマーメイド</t>
-  </si>
-  <si>
-    <t>若鹭姬</t>
-  </si>
-  <si>
-    <t>少名针妙丸</t>
-  </si>
-  <si>
-    <t>TH13.5</t>
-  </si>
-  <si>
-    <t>东方心绮楼</t>
-  </si>
-  <si>
-    <t>佐渡的二岩</t>
-  </si>
-  <si>
-    <t>佐渡の二ッ岩</t>
-  </si>
-  <si>
-    <t>Magus Night</t>
-  </si>
-  <si>
-    <t>メイガスナイト</t>
-  </si>
-  <si>
-    <t>TH13</t>
-  </si>
-  <si>
-    <t>东方神灵庙</t>
-  </si>
-  <si>
-    <t>二岩猯藏</t>
-  </si>
-  <si>
-    <t>圣德传说 ～ True Administrator</t>
-  </si>
-  <si>
-    <t>聖徳伝説 ～ True Administrator</t>
-  </si>
-  <si>
-    <t>丰聪耳神子</t>
-  </si>
-  <si>
-    <t>Rigid Paradise</t>
-  </si>
-  <si>
-    <t>リジッドパラダイス</t>
-  </si>
-  <si>
-    <t>宫古芳香</t>
-  </si>
-  <si>
-    <t>古老的元神</t>
-  </si>
-  <si>
-    <t>古きユアンシェン</t>
-  </si>
-  <si>
-    <t>霍青娥</t>
-  </si>
-  <si>
-    <t>梦殿大祀庙</t>
-  </si>
-  <si>
-    <t>夢殿大祀廟</t>
-  </si>
-  <si>
-    <t>苏我屠自古</t>
-  </si>
-  <si>
-    <t>物部布都</t>
-  </si>
-  <si>
-    <t>Ghost Lead</t>
-  </si>
-  <si>
-    <t>ゴーストリード</t>
-  </si>
-  <si>
-    <t>西行寺幽幽子</t>
-  </si>
-  <si>
-    <t>门前的妖怪小姑娘</t>
-  </si>
-  <si>
-    <t>門前の妖怪小娘</t>
-  </si>
-  <si>
-    <t>幽谷响子</t>
-  </si>
-  <si>
-    <t>TH12.8</t>
-  </si>
-  <si>
-    <t>妖精大战争</t>
-  </si>
-  <si>
-    <t>光之三妖精</t>
-  </si>
-  <si>
-    <t>TH12.3</t>
-  </si>
-  <si>
-    <t>东方非想天则</t>
-  </si>
-  <si>
-    <t>the Grimoire of Alice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TH11</t>
+  </si>
+  <si>
+    <t>东方地灵殿</t>
+  </si>
+  <si>
+    <t>少女觉 ～ 3rd eye</t>
+  </si>
+  <si>
+    <t>少女さとり ～ 3rd eye</t>
+  </si>
+  <si>
+    <t>古明地觉</t>
+  </si>
+  <si>
+    <t>古明地恋</t>
+  </si>
+  <si>
+    <t>被封印的妖怪 ～ Lost Place</t>
+  </si>
+  <si>
+    <t>封じられた妖怪 ～ Lost Place</t>
+  </si>
+  <si>
+    <t>黑谷山女</t>
+  </si>
+  <si>
+    <t>灵乌路空</t>
+  </si>
+  <si>
+    <t>昏暗的风穴</t>
+  </si>
+  <si>
+    <t>暗闇の風穴</t>
+  </si>
+  <si>
+    <t>琪斯美</t>
+  </si>
+  <si>
+    <t>绿眼的嫉妒</t>
+  </si>
+  <si>
+    <t>緑眼のジェラシー</t>
+  </si>
+  <si>
+    <t>水桥帕露西</t>
+  </si>
+  <si>
+    <t>大江山的花之酒宴</t>
+  </si>
+  <si>
+    <t>華のさかづき大江山</t>
+  </si>
+  <si>
+    <t>星熊勇仪</t>
+  </si>
+  <si>
+    <t>TH10.5</t>
+  </si>
+  <si>
+    <t>东方绯想天</t>
+  </si>
+  <si>
+    <t>布加勒斯特的人偶师</t>
+  </si>
+  <si>
+    <t>ブクレシュティの人形師</t>
   </si>
   <si>
     <t>爱丽丝·玛格特洛依德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信仰是为了虚幻之人</t>
-  </si>
-  <si>
-    <t>信仰は儚き人間の為に</t>
+  </si>
+  <si>
+    <t>东方妖恋谈</t>
+  </si>
+  <si>
+    <t>東方妖恋談</t>
+  </si>
+  <si>
+    <t>博丽灵梦</t>
+  </si>
+  <si>
+    <t>魂魄妖梦</t>
+  </si>
+  <si>
+    <t>献给已逝公主的七重奏</t>
+  </si>
+  <si>
+    <t>亡き王女の為のセプテット</t>
+  </si>
+  <si>
+    <t>铃仙·优昙华院·因幡</t>
+  </si>
+  <si>
+    <t>风神少女</t>
+  </si>
+  <si>
+    <t>風神少女</t>
+  </si>
+  <si>
+    <t>射命丸文</t>
+  </si>
+  <si>
+    <t>Flowering Night</t>
+  </si>
+  <si>
+    <t>フラワリングナイト</t>
+  </si>
+  <si>
+    <t>十六夜咲夜</t>
+  </si>
+  <si>
+    <t>永江衣玖</t>
+  </si>
+  <si>
+    <t>TH10</t>
+  </si>
+  <si>
+    <t>东方风神录</t>
+  </si>
+  <si>
+    <t>八坂神奈子</t>
   </si>
   <si>
     <t>东风谷早苗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河城荷取</t>
+  </si>
+  <si>
+    <t>命运的阴暗面</t>
+  </si>
+  <si>
+    <t>運命のダークサイド</t>
+  </si>
+  <si>
+    <t>键山雏</t>
+  </si>
+  <si>
+    <t>秋静叶</t>
+  </si>
+  <si>
+    <t>会受稻田姬的斥责啦</t>
+  </si>
+  <si>
+    <t>稲田姫様に叱られるから</t>
+  </si>
+  <si>
+    <t>秋穣子</t>
+  </si>
+  <si>
+    <t>犬走椛</t>
+  </si>
+  <si>
+    <t>Native Faith</t>
+  </si>
+  <si>
+    <t>ネイティブフェイス</t>
+  </si>
+  <si>
+    <t>洩矢诹访子</t>
+  </si>
+  <si>
+    <t>TH09.5</t>
+  </si>
+  <si>
+    <t>东方文花帖</t>
+  </si>
+  <si>
+    <t>东之国的不眠夜</t>
+  </si>
+  <si>
+    <t>東の国の眠らない夜</t>
+  </si>
+  <si>
+    <t>回忆京都</t>
+  </si>
+  <si>
+    <t>レトロスペクティブ京都</t>
+  </si>
+  <si>
+    <t>TH09</t>
+  </si>
+  <si>
+    <t>东方花映塚</t>
+  </si>
+  <si>
+    <t>风见幽香</t>
+  </si>
+  <si>
+    <t>梅蒂欣·梅兰可莉</t>
+  </si>
+  <si>
+    <t>普莉兹姆利巴三姐妹</t>
+  </si>
+  <si>
+    <t>活泼纯情小姑娘的冒险</t>
+  </si>
+  <si>
+    <t>おてんば恋娘の冒険</t>
+  </si>
+  <si>
+    <t>琪露诺</t>
+  </si>
+  <si>
+    <t>风神少女(Short Version)</t>
+  </si>
+  <si>
+    <t>Oriental Dark Flight</t>
+  </si>
+  <si>
+    <t>オリエンタルダークフライト</t>
+  </si>
+  <si>
+    <t>小野塚小町</t>
+  </si>
+  <si>
+    <t>宇佐大人的白旗</t>
+  </si>
+  <si>
+    <t>お宇佐さまの素い幡</t>
+  </si>
+  <si>
+    <t>因幡帝</t>
+  </si>
+  <si>
+    <t>TH08</t>
+  </si>
+  <si>
+    <t>东方永夜抄</t>
+  </si>
+  <si>
+    <t>八意永琳</t>
+  </si>
+  <si>
+    <t>莉格露·奈特巴格</t>
+  </si>
+  <si>
+    <t>已经只能听见歌声了</t>
+  </si>
+  <si>
+    <t>もう歌しか聞こえない</t>
+  </si>
+  <si>
+    <t>米斯蒂娅·萝蕾拉</t>
+  </si>
+  <si>
+    <t>蓬莱山辉夜</t>
+  </si>
+  <si>
+    <t>Voyage1970</t>
+  </si>
+  <si>
+    <t>ヴォヤージュ1970</t>
+  </si>
+  <si>
+    <t>蓬莱山辉夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plain Asia</t>
+  </si>
+  <si>
+    <t>プレインエイジア</t>
+  </si>
+  <si>
+    <t>上白泽慧音</t>
+  </si>
+  <si>
+    <t>藤原妹红</t>
+  </si>
+  <si>
+    <t>TH07.5</t>
+  </si>
+  <si>
+    <t>东方萃梦想</t>
+  </si>
+  <si>
+    <t>人偶裁判</t>
+  </si>
+  <si>
+    <t>人形裁判</t>
+  </si>
+  <si>
+    <t>蕾米莉亚·斯卡蕾特</t>
+  </si>
+  <si>
+    <t>帕秋莉·诺蕾姬</t>
+  </si>
+  <si>
+    <t>女仆与血之怀表</t>
+  </si>
+  <si>
+    <t>魔女们的舞会</t>
+  </si>
+  <si>
+    <t>魔女達の舞踏会</t>
+  </si>
+  <si>
+    <t>伊吹萃香</t>
+  </si>
+  <si>
+    <t>TH07</t>
+  </si>
+  <si>
+    <t>东方妖妖梦</t>
+  </si>
+  <si>
+    <t>八云蓝</t>
+  </si>
+  <si>
+    <t>Necro-Fantasia</t>
+  </si>
+  <si>
+    <t>ネクロファンタジア</t>
+  </si>
+  <si>
+    <t>凋叶棕（withered leaf）</t>
+  </si>
+  <si>
+    <t>ティアオイエツォン(withered leaf)</t>
+  </si>
+  <si>
+    <t>橙</t>
+  </si>
+  <si>
+    <t>Crystallize Silver</t>
+  </si>
+  <si>
+    <t>クリスタライズシルバー</t>
+  </si>
+  <si>
+    <t>蕾蒂·霍瓦特洛克</t>
+  </si>
+  <si>
+    <t>天空的花都</t>
+  </si>
+  <si>
+    <t>天空の花の都</t>
+  </si>
+  <si>
+    <t>莉莉白</t>
+  </si>
+  <si>
+    <t>Border of Life</t>
+  </si>
+  <si>
+    <t>ボーダーオブライフ</t>
+  </si>
+  <si>
+    <t>TH06</t>
+  </si>
+  <si>
+    <t>东方红魔乡</t>
+  </si>
+  <si>
+    <t>Lunate Elf</t>
+  </si>
+  <si>
+    <t>ルーネイトエルフ</t>
+  </si>
+  <si>
+    <t>大妖精</t>
+  </si>
+  <si>
+    <t>U.N.OWEN就是她吗？</t>
+  </si>
+  <si>
+    <t>U.N.オーエンは彼女なのか？</t>
+  </si>
+  <si>
+    <t>芙兰朵露·斯卡蕾特</t>
+  </si>
+  <si>
+    <t>明治十七年的上海爱丽丝</t>
+  </si>
+  <si>
+    <t>明治十七年の上海アリス</t>
   </si>
   <si>
     <t>红美铃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵乌路空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴瓦鲁魔法图书馆</t>
-  </si>
-  <si>
-    <t>ヴワル魔法図書館</t>
-  </si>
-  <si>
-    <t>活泼的纯情小姑娘</t>
-  </si>
-  <si>
-    <t>おてんば恋娘</t>
-  </si>
-  <si>
-    <t>琪露诺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恋色Magic</t>
-  </si>
-  <si>
-    <t>恋色マジック</t>
-  </si>
-  <si>
-    <t>明日ハレの日、ケの昨日</t>
-  </si>
-  <si>
-    <t>洩矢诹访子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TH12</t>
-  </si>
-  <si>
-    <t>东方星莲船</t>
-  </si>
-  <si>
-    <t>Captain Murasa</t>
-  </si>
-  <si>
-    <t>キャプテン・ムラサ</t>
-  </si>
-  <si>
-    <t>村纱水蜜</t>
-  </si>
-  <si>
-    <t>请注意万年备用伞</t>
-  </si>
-  <si>
-    <t>万年置き傘にご注意を</t>
-  </si>
-  <si>
-    <t>多多良小伞</t>
-  </si>
-  <si>
-    <t>平安时代的外星人</t>
-  </si>
-  <si>
-    <t>平安のエイリアン</t>
-  </si>
-  <si>
-    <t>封兽鵺</t>
-  </si>
-  <si>
-    <t>小小的贤将</t>
-  </si>
-  <si>
-    <t>小さな小さな賢将</t>
-  </si>
-  <si>
-    <t>圣白莲</t>
-  </si>
-  <si>
-    <t>虎纹的毘沙门天</t>
-  </si>
-  <si>
-    <t>虎柄の毘沙門天</t>
-  </si>
-  <si>
-    <t>寅丸星</t>
-  </si>
-  <si>
-    <t>云居一轮&amp;云山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TH11</t>
-  </si>
-  <si>
-    <t>东方地灵殿</t>
-  </si>
-  <si>
-    <t>少女觉 ～ 3rd eye</t>
-  </si>
-  <si>
-    <t>少女さとり ～ 3rd eye</t>
-  </si>
-  <si>
-    <t>古明地觉</t>
-  </si>
-  <si>
-    <t>古明地恋</t>
-  </si>
-  <si>
-    <t>被封印的妖怪 ～ Lost Place</t>
-  </si>
-  <si>
-    <t>封じられた妖怪 ～ Lost Place</t>
-  </si>
-  <si>
-    <t>黑谷山女</t>
-  </si>
-  <si>
-    <t>灵乌路空</t>
-  </si>
-  <si>
-    <t>昏暗的风穴</t>
-  </si>
-  <si>
-    <t>暗闇の風穴</t>
-  </si>
-  <si>
-    <t>琪斯美</t>
-  </si>
-  <si>
-    <t>绿眼的嫉妒</t>
-  </si>
-  <si>
-    <t>緑眼のジェラシー</t>
-  </si>
-  <si>
-    <t>水桥帕露西</t>
-  </si>
-  <si>
-    <t>大江山的花之酒宴</t>
-  </si>
-  <si>
-    <t>華のさかづき大江山</t>
-  </si>
-  <si>
-    <t>星熊勇仪</t>
-  </si>
-  <si>
-    <t>TH10.5</t>
-  </si>
-  <si>
-    <t>东方绯想天</t>
-  </si>
-  <si>
-    <t>布加勒斯特的人偶师</t>
-  </si>
-  <si>
-    <t>ブクレシュティの人形師</t>
-  </si>
-  <si>
-    <t>爱丽丝·玛格特洛依德</t>
-  </si>
-  <si>
-    <t>东方妖恋谈</t>
-  </si>
-  <si>
-    <t>東方妖恋談</t>
-  </si>
-  <si>
-    <t>博丽灵梦</t>
-  </si>
-  <si>
-    <t>魂魄妖梦</t>
-  </si>
-  <si>
-    <t>献给已逝公主的七重奏</t>
-  </si>
-  <si>
-    <t>亡き王女の為のセプテット</t>
-  </si>
-  <si>
-    <t>铃仙·优昙华院·因幡</t>
-  </si>
-  <si>
-    <t>风神少女</t>
-  </si>
-  <si>
-    <t>風神少女</t>
-  </si>
-  <si>
-    <t>射命丸文</t>
-  </si>
-  <si>
-    <t>Flowering Night</t>
-  </si>
-  <si>
-    <t>フラワリングナイト</t>
-  </si>
-  <si>
-    <t>十六夜咲夜</t>
-  </si>
-  <si>
-    <t>永江衣玖</t>
-  </si>
-  <si>
-    <t>TH10</t>
-  </si>
-  <si>
-    <t>东方风神录</t>
-  </si>
-  <si>
-    <t>八坂神奈子</t>
-  </si>
-  <si>
-    <t>东风谷早苗</t>
-  </si>
-  <si>
-    <t>河城荷取</t>
-  </si>
-  <si>
-    <t>命运的阴暗面</t>
-  </si>
-  <si>
-    <t>運命のダークサイド</t>
-  </si>
-  <si>
-    <t>键山雏</t>
-  </si>
-  <si>
-    <t>秋静叶</t>
-  </si>
-  <si>
-    <t>会受稻田姬的斥责啦</t>
-  </si>
-  <si>
-    <t>稲田姫様に叱られるから</t>
-  </si>
-  <si>
-    <t>秋穣子</t>
-  </si>
-  <si>
-    <t>犬走椛</t>
-  </si>
-  <si>
-    <t>Native Faith</t>
-  </si>
-  <si>
-    <t>ネイティブフェイス</t>
-  </si>
-  <si>
-    <t>洩矢诹访子</t>
-  </si>
-  <si>
-    <t>TH09.5</t>
-  </si>
-  <si>
-    <t>东方文花帖</t>
-  </si>
-  <si>
-    <t>东之国的不眠夜</t>
-  </si>
-  <si>
-    <t>東の国の眠らない夜</t>
-  </si>
-  <si>
-    <t>回忆京都</t>
-  </si>
-  <si>
-    <t>レトロスペクティブ京都</t>
-  </si>
-  <si>
-    <t>TH09</t>
-  </si>
-  <si>
-    <t>东方花映塚</t>
-  </si>
-  <si>
-    <t>风见幽香</t>
-  </si>
-  <si>
-    <t>梅蒂欣·梅兰可莉</t>
-  </si>
-  <si>
-    <t>普莉兹姆利巴三姐妹</t>
-  </si>
-  <si>
-    <t>活泼纯情小姑娘的冒险</t>
-  </si>
-  <si>
-    <t>おてんば恋娘の冒険</t>
-  </si>
-  <si>
-    <t>琪露诺</t>
-  </si>
-  <si>
-    <t>风神少女(Short Version)</t>
-  </si>
-  <si>
-    <t>Oriental Dark Flight</t>
-  </si>
-  <si>
-    <t>オリエンタルダークフライト</t>
-  </si>
-  <si>
-    <t>小野塚小町</t>
-  </si>
-  <si>
-    <t>宇佐大人的白旗</t>
-  </si>
-  <si>
-    <t>お宇佐さまの素い幡</t>
-  </si>
-  <si>
-    <t>因幡帝</t>
-  </si>
-  <si>
-    <t>TH08</t>
-  </si>
-  <si>
-    <t>东方永夜抄</t>
-  </si>
-  <si>
-    <t>八意永琳</t>
-  </si>
-  <si>
-    <t>莉格露·奈特巴格</t>
-  </si>
-  <si>
-    <t>已经只能听见歌声了</t>
-  </si>
-  <si>
-    <t>もう歌しか聞こえない</t>
-  </si>
-  <si>
-    <t>米斯蒂娅·萝蕾拉</t>
-  </si>
-  <si>
-    <t>蓬莱山辉夜</t>
-  </si>
-  <si>
-    <t>Voyage1970</t>
-  </si>
-  <si>
-    <t>ヴォヤージュ1970</t>
-  </si>
-  <si>
-    <t>蓬莱山辉夜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plain Asia</t>
-  </si>
-  <si>
-    <t>プレインエイジア</t>
-  </si>
-  <si>
-    <t>上白泽慧音</t>
-  </si>
-  <si>
-    <t>藤原妹红</t>
-  </si>
-  <si>
-    <t>TH07.5</t>
-  </si>
-  <si>
-    <t>东方萃梦想</t>
-  </si>
-  <si>
-    <t>人偶裁判</t>
-  </si>
-  <si>
-    <t>人形裁判</t>
-  </si>
-  <si>
-    <t>蕾米莉亚·斯卡蕾特</t>
-  </si>
-  <si>
-    <t>帕秋莉·诺蕾姬</t>
-  </si>
-  <si>
-    <t>女仆与血之怀表</t>
-  </si>
-  <si>
-    <t>魔女们的舞会</t>
-  </si>
-  <si>
-    <t>魔女達の舞踏会</t>
-  </si>
-  <si>
-    <t>伊吹萃香</t>
-  </si>
-  <si>
-    <t>TH07</t>
-  </si>
-  <si>
-    <t>东方妖妖梦</t>
-  </si>
-  <si>
-    <t>八云蓝</t>
-  </si>
-  <si>
-    <t>Necro-Fantasia</t>
-  </si>
-  <si>
-    <t>ネクロファンタジア</t>
-  </si>
-  <si>
-    <t>凋叶棕（withered leaf）</t>
-  </si>
-  <si>
-    <t>ティアオイエツォン(withered leaf)</t>
-  </si>
-  <si>
-    <t>橙</t>
-  </si>
-  <si>
-    <t>Crystallize Silver</t>
-  </si>
-  <si>
-    <t>クリスタライズシルバー</t>
-  </si>
-  <si>
-    <t>蕾蒂·霍瓦特洛克</t>
-  </si>
-  <si>
-    <t>天空的花都</t>
-  </si>
-  <si>
-    <t>天空の花の都</t>
-  </si>
-  <si>
-    <t>莉莉白</t>
-  </si>
-  <si>
-    <t>Border of Life</t>
-  </si>
-  <si>
-    <t>ボーダーオブライフ</t>
-  </si>
-  <si>
-    <t>TH06</t>
-  </si>
-  <si>
-    <t>东方红魔乡</t>
-  </si>
-  <si>
-    <t>Lunate Elf</t>
-  </si>
-  <si>
-    <t>ルーネイトエルフ</t>
-  </si>
-  <si>
-    <t>大妖精</t>
-  </si>
-  <si>
-    <t>U.N.OWEN就是她吗？</t>
-  </si>
-  <si>
-    <t>U.N.オーエンは彼女なのか？</t>
-  </si>
-  <si>
-    <t>芙兰朵露·斯卡蕾特</t>
-  </si>
-  <si>
-    <t>明治十七年的上海爱丽丝</t>
-  </si>
-  <si>
-    <t>明治十七年の上海アリス</t>
-  </si>
-  <si>
-    <t>红美铃</t>
   </si>
   <si>
     <t>妖魔夜行</t>
@@ -1337,9 +1328,6 @@
     <t>霊知の太陽信仰 ～ Nuclear Fusion</t>
   </si>
   <si>
-    <t>二色莲花蝶 ～ Red and White</t>
-  </si>
-  <si>
     <t>芥川龙之介的河童 ～ Candid Friend</t>
   </si>
   <si>
@@ -1548,12 +1536,6 @@
   </si>
   <si>
     <t>ピュアヒューリーズ ～ 心の在処</t>
-  </si>
-  <si>
-    <t>二色蓮花蝶 ~ Red and White</t>
-  </si>
-  <si>
-    <t>聖徳伝説 ~ True Administrator</t>
   </si>
   <si>
     <t>芥川龍之介の河童 ~ Candid Friend</t>
@@ -1766,9 +1748,6 @@
     <t>秘神マターラ ~ Hidden Star in All Seasons</t>
   </si>
   <si>
-    <t>感情の摩天楼 ~ Cosmic Mind</t>
-  </si>
-  <si>
     <t>感情の摩天楼　～ Cosmic Mind</t>
   </si>
   <si>
@@ -2160,6 +2139,54 @@
   </si>
   <si>
     <t>小野塚小町</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>メイドと血の懐中時計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆与血之怀表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日ハレの日、ケの昨日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日之盛，昨日之俗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云居一轮&amp;云山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九十九弁弁&amp;九十九八桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁礼田舞&amp;尔子田里乃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Grimoire of Marisa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法使いの憂鬱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾雨魔理沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法使的忧郁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2494,10 +2521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F260"/>
+  <dimension ref="A1:F257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="D259" sqref="D259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2526,24 +2553,24 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2" t="s">
         <v>391</v>
       </c>
-      <c r="B2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D2" t="s">
-        <v>394</v>
-      </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F2">
         <v>22636836</v>
@@ -2551,19 +2578,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D3" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="E3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F3">
         <v>22636829</v>
@@ -2571,19 +2598,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C4" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F4">
         <v>22636835</v>
@@ -2591,19 +2618,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F5">
         <v>22636837</v>
@@ -2611,19 +2638,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C6" t="s">
         <v>392</v>
       </c>
-      <c r="C6" t="s">
-        <v>395</v>
-      </c>
       <c r="D6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F6">
         <v>500684336</v>
@@ -2631,19 +2658,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" t="s">
         <v>381</v>
-      </c>
-      <c r="B7" t="s">
-        <v>382</v>
-      </c>
-      <c r="C7" t="s">
-        <v>383</v>
-      </c>
-      <c r="D7" t="s">
-        <v>383</v>
-      </c>
-      <c r="E7" t="s">
-        <v>384</v>
       </c>
       <c r="F7">
         <v>34999157</v>
@@ -2651,19 +2678,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F8">
         <v>34999158</v>
@@ -2671,19 +2698,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9">
         <v>34999160</v>
@@ -2691,19 +2718,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F10">
         <v>34999161</v>
@@ -2711,19 +2738,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C11" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11" t="s">
+        <v>383</v>
+      </c>
+      <c r="E11" t="s">
         <v>381</v>
-      </c>
-      <c r="B11" t="s">
-        <v>382</v>
-      </c>
-      <c r="C11" t="s">
-        <v>385</v>
-      </c>
-      <c r="D11" t="s">
-        <v>386</v>
-      </c>
-      <c r="E11" t="s">
-        <v>384</v>
       </c>
       <c r="F11">
         <v>34999163</v>
@@ -2731,19 +2758,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B12" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F12">
         <v>22636805</v>
@@ -2751,19 +2778,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B13" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C13" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D13" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F13">
         <v>22636807</v>
@@ -2771,16 +2798,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -2791,19 +2818,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>364</v>
+      </c>
+      <c r="B15" t="s">
+        <v>365</v>
+      </c>
+      <c r="C15" t="s">
+        <v>434</v>
+      </c>
+      <c r="D15" t="s">
+        <v>515</v>
+      </c>
+      <c r="E15" t="s">
         <v>367</v>
-      </c>
-      <c r="B15" t="s">
-        <v>368</v>
-      </c>
-      <c r="C15" t="s">
-        <v>438</v>
-      </c>
-      <c r="D15" t="s">
-        <v>521</v>
-      </c>
-      <c r="E15" t="s">
-        <v>370</v>
       </c>
       <c r="F15">
         <v>22636816</v>
@@ -2811,19 +2838,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B16" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C16" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D16" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E16" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F16">
         <v>22636808</v>
@@ -2831,19 +2858,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E17" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="F17">
         <v>22636810</v>
@@ -2851,19 +2878,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C18" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D18" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E18" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F18">
         <v>22636806</v>
@@ -2871,19 +2898,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B19" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C19" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D19" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="E19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F19">
         <v>22636820</v>
@@ -2891,19 +2918,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B20" t="s">
+        <v>365</v>
+      </c>
+      <c r="C20" t="s">
         <v>368</v>
       </c>
-      <c r="C20" t="s">
-        <v>371</v>
-      </c>
       <c r="D20" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E20" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F20">
         <v>22636811</v>
@@ -2911,19 +2938,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B21" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C21" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D21" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E21" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F21">
         <v>22636814</v>
@@ -2931,19 +2958,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C22" t="s">
+        <v>518</v>
+      </c>
+      <c r="D22" t="s">
+        <v>531</v>
+      </c>
+      <c r="E22" t="s">
         <v>359</v>
-      </c>
-      <c r="B22" t="s">
-        <v>360</v>
-      </c>
-      <c r="C22" t="s">
-        <v>524</v>
-      </c>
-      <c r="D22" t="s">
-        <v>537</v>
-      </c>
-      <c r="E22" t="s">
-        <v>362</v>
       </c>
       <c r="F22">
         <v>22636738</v>
@@ -2951,19 +2978,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B23" t="s">
+        <v>357</v>
+      </c>
+      <c r="C23" t="s">
+        <v>519</v>
+      </c>
+      <c r="D23" t="s">
+        <v>532</v>
+      </c>
+      <c r="E23" t="s">
         <v>360</v>
-      </c>
-      <c r="C23" t="s">
-        <v>525</v>
-      </c>
-      <c r="D23" t="s">
-        <v>538</v>
-      </c>
-      <c r="E23" t="s">
-        <v>363</v>
       </c>
       <c r="F23">
         <v>22636747</v>
@@ -2971,19 +2998,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B24" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C24" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D24" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="E24" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F24">
         <v>22636741</v>
@@ -2991,16 +3018,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C25" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D25" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -3011,19 +3038,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B26" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C26" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D26" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E26" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F26">
         <v>22636742</v>
@@ -3031,16 +3058,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B27" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C27" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D27" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
@@ -3051,16 +3078,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B28" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C28" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D28" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E28" t="s">
         <v>23</v>
@@ -3071,19 +3098,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B29" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C29" t="s">
+        <v>528</v>
+      </c>
+      <c r="D29" t="s">
         <v>534</v>
       </c>
-      <c r="D29" t="s">
-        <v>540</v>
-      </c>
       <c r="E29" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F29">
         <v>22636744</v>
@@ -3091,19 +3118,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B30" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C30" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D30" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E30" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F30">
         <v>22636758</v>
@@ -3111,19 +3138,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B31" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C31" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D31" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="E31" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F31">
         <v>22636764</v>
@@ -3131,19 +3158,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B32" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C32" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D32" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E32" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F32">
         <v>22636763</v>
@@ -3151,19 +3178,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B33" t="s">
+        <v>344</v>
+      </c>
+      <c r="C33" t="s">
+        <v>345</v>
+      </c>
+      <c r="D33" t="s">
         <v>346</v>
       </c>
-      <c r="B33" t="s">
-        <v>347</v>
-      </c>
-      <c r="C33" t="s">
-        <v>348</v>
-      </c>
-      <c r="D33" t="s">
-        <v>349</v>
-      </c>
       <c r="E33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F33">
         <v>22636767</v>
@@ -3171,19 +3198,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B34" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C34" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D34" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E34" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F34">
         <v>22636765</v>
@@ -3191,19 +3218,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B35" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C35" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D35" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E35" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F35">
         <v>22636779</v>
@@ -3211,19 +3238,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B36" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C36" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D36" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E36" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F36">
         <v>22636770</v>
@@ -3231,19 +3258,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B37" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C37" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D37" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F37">
         <v>22636768</v>
@@ -3251,19 +3278,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C38" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D38" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E38" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F38">
         <v>22636774</v>
@@ -3271,19 +3298,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s">
+        <v>344</v>
+      </c>
+      <c r="C39" t="s">
         <v>347</v>
       </c>
-      <c r="C39" t="s">
-        <v>350</v>
-      </c>
       <c r="D39" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E39" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F39">
         <v>22636777</v>
@@ -3291,19 +3318,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B40" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C40" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D40" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E40" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F40">
         <v>22636772</v>
@@ -3311,19 +3338,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B41" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C41" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D41" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E41" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F41">
         <v>22636719</v>
@@ -3331,19 +3358,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>329</v>
+      </c>
+      <c r="B42" t="s">
+        <v>330</v>
+      </c>
+      <c r="C42" t="s">
+        <v>331</v>
+      </c>
+      <c r="D42" t="s">
         <v>332</v>
       </c>
-      <c r="B42" t="s">
+      <c r="E42" t="s">
         <v>333</v>
-      </c>
-      <c r="C42" t="s">
-        <v>334</v>
-      </c>
-      <c r="D42" t="s">
-        <v>335</v>
-      </c>
-      <c r="E42" t="s">
-        <v>336</v>
       </c>
       <c r="F42">
         <v>22636721</v>
@@ -3351,19 +3378,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C43" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D43" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E43" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F43">
         <v>22636718</v>
@@ -3371,19 +3398,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C44" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D44" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="E44" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F44">
         <v>22636730</v>
@@ -3391,19 +3418,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B45" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C45" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D45" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E45" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F45">
         <v>22636722</v>
@@ -3411,19 +3438,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B46" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E46" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F46">
         <v>22636724</v>
@@ -3431,19 +3458,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C47" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D47" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E47" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F47">
         <v>22636720</v>
@@ -3451,90 +3478,90 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C48" t="s">
-        <v>411</v>
+        <v>663</v>
       </c>
       <c r="D48" t="s">
-        <v>412</v>
+        <v>662</v>
       </c>
       <c r="E48" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F48">
-        <v>22636725</v>
+        <v>22636732</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B49" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C49" t="s">
-        <v>244</v>
+        <v>408</v>
       </c>
       <c r="D49" t="s">
-        <v>245</v>
+        <v>409</v>
       </c>
       <c r="E49" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
       <c r="F49">
-        <v>22636723</v>
+        <v>22636725</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C50" t="s">
-        <v>337</v>
+        <v>241</v>
       </c>
       <c r="D50" t="s">
-        <v>338</v>
+        <v>242</v>
       </c>
       <c r="E50" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="F50">
-        <v>22636729</v>
+        <v>22636723</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="B51" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C51" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="D51" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="E51" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="F51">
-        <v>22636707</v>
+        <v>22636729</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B52" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C52" t="s">
         <v>321</v>
@@ -3546,1795 +3573,1795 @@
         <v>323</v>
       </c>
       <c r="F52">
-        <v>22636702</v>
+        <v>22636707</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B53" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C53" t="s">
-        <v>662</v>
+        <v>318</v>
       </c>
       <c r="D53" t="s">
-        <v>550</v>
+        <v>319</v>
       </c>
       <c r="E53" t="s">
-        <v>239</v>
+        <v>320</v>
       </c>
       <c r="F53">
-        <v>22636698</v>
+        <v>22636702</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B54" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C54" t="s">
-        <v>454</v>
+        <v>655</v>
       </c>
       <c r="D54" t="s">
-        <v>455</v>
+        <v>544</v>
       </c>
       <c r="E54" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F54">
-        <v>22636711</v>
+        <v>22636698</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B55" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C55" t="s">
-        <v>327</v>
+        <v>450</v>
       </c>
       <c r="D55" t="s">
-        <v>328</v>
+        <v>451</v>
       </c>
       <c r="E55" t="s">
-        <v>329</v>
+        <v>236</v>
       </c>
       <c r="F55">
-        <v>22636703</v>
+        <v>22636711</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B56" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C56" t="s">
-        <v>456</v>
+        <v>324</v>
       </c>
       <c r="D56" t="s">
-        <v>457</v>
+        <v>325</v>
       </c>
       <c r="E56" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="F56">
-        <v>22636705</v>
+        <v>22636703</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B57" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C57" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="D57" t="s">
-        <v>553</v>
+        <v>453</v>
       </c>
       <c r="E57" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="F57">
-        <v>22636701</v>
+        <v>22636705</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B58" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C58" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D58" t="s">
         <v>547</v>
       </c>
       <c r="E58" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F58">
-        <v>22636714</v>
+        <v>22636701</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B59" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C59" t="s">
-        <v>581</v>
+        <v>403</v>
       </c>
       <c r="D59" t="s">
-        <v>413</v>
+        <v>541</v>
       </c>
       <c r="E59" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="F59">
-        <v>22636709</v>
+        <v>22636714</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B60" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C60" t="s">
-        <v>330</v>
+        <v>574</v>
       </c>
       <c r="D60" t="s">
-        <v>331</v>
+        <v>410</v>
       </c>
       <c r="E60" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F60">
-        <v>22636704</v>
+        <v>22636709</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B61" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C61" t="s">
-        <v>458</v>
+        <v>327</v>
       </c>
       <c r="D61" t="s">
-        <v>458</v>
+        <v>328</v>
       </c>
       <c r="E61" t="s">
-        <v>318</v>
+        <v>170</v>
       </c>
       <c r="F61">
-        <v>22636710</v>
+        <v>22636704</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B62" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C62" t="s">
-        <v>319</v>
+        <v>454</v>
       </c>
       <c r="D62" t="s">
-        <v>320</v>
+        <v>454</v>
       </c>
       <c r="E62" t="s">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="F62">
-        <v>22636708</v>
+        <v>22636710</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B63" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C63" t="s">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="D63" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="E63" t="s">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="F63">
-        <v>22765972</v>
+        <v>22636708</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B64" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C64" t="s">
-        <v>405</v>
+        <v>237</v>
       </c>
       <c r="D64" t="s">
-        <v>548</v>
+        <v>237</v>
       </c>
       <c r="E64" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F64">
-        <v>22765996</v>
+        <v>22765972</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B65" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C65" t="s">
-        <v>194</v>
+        <v>402</v>
       </c>
       <c r="D65" t="s">
-        <v>195</v>
+        <v>542</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="F65">
-        <v>22765964</v>
+        <v>22765996</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B66" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C66" t="s">
-        <v>313</v>
+        <v>191</v>
       </c>
       <c r="D66" t="s">
-        <v>314</v>
+        <v>192</v>
       </c>
       <c r="E66" t="s">
         <v>20</v>
       </c>
       <c r="F66">
-        <v>22765986</v>
+        <v>22765964</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B67" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C67" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D67" t="s">
-        <v>416</v>
+        <v>311</v>
       </c>
       <c r="E67" t="s">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="F67">
-        <v>22765976</v>
+        <v>22765986</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B68" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C68" t="s">
-        <v>411</v>
+        <v>309</v>
       </c>
       <c r="D68" t="s">
-        <v>549</v>
+        <v>413</v>
       </c>
       <c r="E68" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F68">
-        <v>22766000</v>
+        <v>22765976</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B69" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C69" t="s">
-        <v>237</v>
+        <v>408</v>
       </c>
       <c r="D69" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="E69" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="F69">
-        <v>22765967</v>
+        <v>22766000</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B70" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C70" t="s">
-        <v>308</v>
+        <v>234</v>
       </c>
       <c r="D70" t="s">
-        <v>309</v>
+        <v>544</v>
       </c>
       <c r="E70" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F70">
-        <v>22765990</v>
+        <v>22765967</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>303</v>
+      </c>
+      <c r="B71" t="s">
+        <v>304</v>
+      </c>
+      <c r="C71" t="s">
+        <v>305</v>
+      </c>
+      <c r="D71" t="s">
         <v>306</v>
       </c>
-      <c r="B71" t="s">
-        <v>307</v>
-      </c>
-      <c r="C71" t="s">
-        <v>409</v>
-      </c>
-      <c r="D71" t="s">
-        <v>551</v>
-      </c>
       <c r="E71" t="s">
-        <v>311</v>
+        <v>236</v>
       </c>
       <c r="F71">
-        <v>22765980</v>
+        <v>22765990</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B72" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>406</v>
       </c>
       <c r="D72" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="E72" t="s">
-        <v>622</v>
+        <v>308</v>
       </c>
       <c r="F72">
-        <v>22766003</v>
+        <v>22765980</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B73" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C73" t="s">
-        <v>406</v>
+        <v>186</v>
       </c>
       <c r="D73" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="E73" t="s">
-        <v>243</v>
+        <v>615</v>
       </c>
       <c r="F73">
-        <v>22765970</v>
+        <v>22766003</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B74" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C74" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D74" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E74" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F74">
-        <v>22765994</v>
+        <v>22765970</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B75" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C75" t="s">
-        <v>244</v>
+        <v>404</v>
       </c>
       <c r="D75" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="E75" t="s">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="F75">
-        <v>22765966</v>
+        <v>22765994</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B76" t="s">
+        <v>304</v>
+      </c>
+      <c r="C76" t="s">
+        <v>241</v>
+      </c>
+      <c r="D76" t="s">
+        <v>548</v>
+      </c>
+      <c r="E76" t="s">
         <v>307</v>
       </c>
-      <c r="C76" t="s">
-        <v>581</v>
-      </c>
-      <c r="D76" t="s">
-        <v>556</v>
-      </c>
-      <c r="E76" t="s">
-        <v>173</v>
-      </c>
       <c r="F76">
-        <v>22765984</v>
+        <v>22765966</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B77" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C77" t="s">
-        <v>404</v>
+        <v>574</v>
       </c>
       <c r="D77" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="E77" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="F77">
-        <v>22765997</v>
+        <v>22765984</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B78" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C78" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D78" t="s">
-        <v>415</v>
+        <v>551</v>
       </c>
       <c r="E78" t="s">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="F78">
-        <v>22766006</v>
+        <v>22765997</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B79" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="C79" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="D79" t="s">
-        <v>460</v>
+        <v>412</v>
       </c>
       <c r="E79" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="F79">
-        <v>22636686</v>
+        <v>22766006</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>288</v>
+      </c>
+      <c r="B80" t="s">
+        <v>289</v>
+      </c>
+      <c r="C80" t="s">
+        <v>455</v>
+      </c>
+      <c r="D80" t="s">
+        <v>456</v>
+      </c>
+      <c r="E80" t="s">
         <v>291</v>
       </c>
-      <c r="B80" t="s">
-        <v>292</v>
-      </c>
-      <c r="C80" t="s">
-        <v>295</v>
-      </c>
-      <c r="D80" t="s">
-        <v>296</v>
-      </c>
-      <c r="E80" t="s">
-        <v>297</v>
-      </c>
       <c r="F80">
-        <v>22636681</v>
+        <v>22636686</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B81" t="s">
+        <v>289</v>
+      </c>
+      <c r="C81" t="s">
         <v>292</v>
       </c>
-      <c r="C81" t="s">
-        <v>302</v>
-      </c>
       <c r="D81" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E81" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F81">
-        <v>22636690</v>
+        <v>22636681</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B82" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C82" t="s">
-        <v>461</v>
+        <v>299</v>
       </c>
       <c r="D82" t="s">
-        <v>462</v>
+        <v>300</v>
       </c>
       <c r="E82" t="s">
-        <v>242</v>
+        <v>301</v>
       </c>
       <c r="F82">
-        <v>22636684</v>
+        <v>22636690</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B83" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C83" t="s">
-        <v>102</v>
+        <v>457</v>
       </c>
       <c r="D83" t="s">
-        <v>103</v>
+        <v>458</v>
       </c>
       <c r="E83" t="s">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="F83">
-        <v>22636680</v>
+        <v>22636684</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B84" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C84" t="s">
-        <v>463</v>
+        <v>101</v>
       </c>
       <c r="D84" t="s">
-        <v>464</v>
+        <v>102</v>
       </c>
       <c r="E84" t="s">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="F84">
-        <v>22636693</v>
+        <v>22636680</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B85" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C85" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="D85" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E85" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="F85">
-        <v>22636685</v>
+        <v>22636693</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B86" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C86" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="D86" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="E86" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="F86">
-        <v>22636683</v>
+        <v>22636685</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B87" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C87" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D87" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="E87" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F87">
-        <v>22636695</v>
+        <v>22636683</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B88" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C88" t="s">
-        <v>299</v>
+        <v>464</v>
       </c>
       <c r="D88" t="s">
-        <v>300</v>
+        <v>465</v>
       </c>
       <c r="E88" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F88">
-        <v>22636689</v>
+        <v>22636695</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B89" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C89" t="s">
-        <v>582</v>
+        <v>296</v>
       </c>
       <c r="D89" t="s">
-        <v>97</v>
+        <v>297</v>
       </c>
       <c r="E89" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F89">
-        <v>22636687</v>
+        <v>22636689</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B90" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C90" t="s">
-        <v>470</v>
+        <v>575</v>
       </c>
       <c r="D90" t="s">
-        <v>470</v>
+        <v>96</v>
       </c>
       <c r="E90" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="F90">
-        <v>510172</v>
+        <v>22636687</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B91" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C91" t="s">
-        <v>285</v>
+        <v>466</v>
       </c>
       <c r="D91" t="s">
-        <v>286</v>
+        <v>466</v>
       </c>
       <c r="E91" t="s">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="F91">
-        <v>510174</v>
+        <v>510172</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B92" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C92" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="D92" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="E92" t="s">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="F92">
-        <v>510177</v>
+        <v>510174</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B93" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C93" t="s">
-        <v>407</v>
+        <v>247</v>
       </c>
       <c r="D93" t="s">
-        <v>408</v>
+        <v>248</v>
       </c>
       <c r="E93" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F93">
-        <v>510179</v>
+        <v>510177</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B94" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C94" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
       <c r="D94" t="s">
-        <v>465</v>
+        <v>405</v>
       </c>
       <c r="E94" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F94">
-        <v>510182</v>
+        <v>510179</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B95" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C95" t="s">
-        <v>281</v>
+        <v>431</v>
       </c>
       <c r="D95" t="s">
-        <v>282</v>
+        <v>461</v>
       </c>
       <c r="E95" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="F95">
-        <v>510185</v>
+        <v>510182</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B96" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C96" t="s">
-        <v>456</v>
+        <v>278</v>
       </c>
       <c r="D96" t="s">
-        <v>457</v>
+        <v>279</v>
       </c>
       <c r="E96" t="s">
         <v>280</v>
       </c>
       <c r="F96">
-        <v>510188</v>
+        <v>510185</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B97" t="s">
+        <v>274</v>
+      </c>
+      <c r="C97" t="s">
+        <v>452</v>
+      </c>
+      <c r="D97" t="s">
+        <v>453</v>
+      </c>
+      <c r="E97" t="s">
         <v>277</v>
       </c>
-      <c r="C97" t="s">
-        <v>471</v>
-      </c>
-      <c r="D97" t="s">
-        <v>472</v>
-      </c>
-      <c r="E97" t="s">
-        <v>297</v>
-      </c>
       <c r="F97">
-        <v>510192</v>
+        <v>510188</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B98" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C98" t="s">
-        <v>288</v>
+        <v>467</v>
       </c>
       <c r="D98" t="s">
-        <v>289</v>
+        <v>468</v>
       </c>
       <c r="E98" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F98">
-        <v>510196</v>
+        <v>510192</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B99" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C99" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D99" t="s">
-        <v>579</v>
+        <v>286</v>
       </c>
       <c r="E99" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="F99">
-        <v>510200</v>
+        <v>510196</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B100" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C100" t="s">
-        <v>473</v>
+        <v>281</v>
       </c>
       <c r="D100" t="s">
-        <v>474</v>
+        <v>572</v>
       </c>
       <c r="E100" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="F100">
-        <v>510204</v>
+        <v>510200</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>273</v>
+      </c>
+      <c r="B101" t="s">
+        <v>274</v>
+      </c>
+      <c r="C101" t="s">
+        <v>469</v>
+      </c>
+      <c r="D101" t="s">
+        <v>470</v>
+      </c>
+      <c r="E101" t="s">
         <v>276</v>
       </c>
-      <c r="B101" t="s">
-        <v>277</v>
-      </c>
-      <c r="C101" t="s">
-        <v>475</v>
-      </c>
-      <c r="D101" t="s">
-        <v>476</v>
-      </c>
-      <c r="E101" t="s">
-        <v>278</v>
-      </c>
       <c r="F101">
-        <v>510208</v>
+        <v>510204</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B102" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C102" t="s">
-        <v>588</v>
+        <v>471</v>
       </c>
       <c r="D102" t="s">
-        <v>590</v>
+        <v>472</v>
       </c>
       <c r="E102" t="s">
-        <v>589</v>
+        <v>275</v>
       </c>
       <c r="F102">
-        <v>510216</v>
+        <v>510208</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B103" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C103" t="s">
-        <v>477</v>
+        <v>581</v>
       </c>
       <c r="D103" t="s">
-        <v>478</v>
+        <v>583</v>
       </c>
       <c r="E103" t="s">
-        <v>287</v>
+        <v>582</v>
       </c>
       <c r="F103">
-        <v>510212</v>
+        <v>510216</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B104" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C104" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D104" t="s">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="E104" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="F104">
-        <v>29710947</v>
+        <v>510212</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B105" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C105" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="D105" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E105" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F105">
-        <v>29710948</v>
+        <v>29710947</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B106" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C106" t="s">
-        <v>272</v>
+        <v>415</v>
       </c>
       <c r="D106" t="s">
-        <v>273</v>
+        <v>416</v>
       </c>
       <c r="E106" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F106">
-        <v>29710949</v>
+        <v>29710948</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>267</v>
+      </c>
+      <c r="B107" t="s">
+        <v>268</v>
+      </c>
+      <c r="C107" t="s">
+        <v>269</v>
+      </c>
+      <c r="D107" t="s">
         <v>270</v>
       </c>
-      <c r="B107" t="s">
-        <v>271</v>
-      </c>
-      <c r="C107" t="s">
-        <v>274</v>
-      </c>
-      <c r="D107" t="s">
-        <v>275</v>
-      </c>
       <c r="E107" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F107">
-        <v>29710950</v>
+        <v>29710949</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B108" t="s">
+        <v>268</v>
+      </c>
+      <c r="C108" t="s">
         <v>271</v>
       </c>
-      <c r="C108" t="s">
-        <v>247</v>
-      </c>
       <c r="D108" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="E108" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F108">
-        <v>29710952</v>
+        <v>29710950</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="B109" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C109" t="s">
-        <v>480</v>
+        <v>244</v>
       </c>
       <c r="D109" t="s">
-        <v>481</v>
+        <v>245</v>
       </c>
       <c r="E109" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F109">
-        <v>22636639</v>
+        <v>29710952</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B110" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C110" t="s">
-        <v>263</v>
+        <v>476</v>
       </c>
       <c r="D110" t="s">
-        <v>264</v>
+        <v>477</v>
       </c>
       <c r="E110" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F110">
-        <v>22636649</v>
+        <v>22636639</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B111" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C111" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D111" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E111" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F111">
-        <v>22636644</v>
+        <v>22636649</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B112" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C112" t="s">
-        <v>426</v>
+        <v>256</v>
       </c>
       <c r="D112" t="s">
-        <v>427</v>
+        <v>257</v>
       </c>
       <c r="E112" t="s">
         <v>258</v>
       </c>
       <c r="F112">
-        <v>22636653</v>
+        <v>22636644</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B113" t="s">
+        <v>252</v>
+      </c>
+      <c r="C113" t="s">
+        <v>422</v>
+      </c>
+      <c r="D113" t="s">
+        <v>423</v>
+      </c>
+      <c r="E113" t="s">
         <v>255</v>
       </c>
-      <c r="C113" t="s">
-        <v>482</v>
-      </c>
-      <c r="D113" t="s">
-        <v>483</v>
-      </c>
-      <c r="E113" t="s">
-        <v>266</v>
-      </c>
       <c r="F113">
-        <v>22636645</v>
+        <v>22636653</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B114" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C114" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D114" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E114" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="F114">
-        <v>22636647</v>
+        <v>22636645</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B115" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C115" t="s">
-        <v>184</v>
+        <v>480</v>
       </c>
       <c r="D115" t="s">
-        <v>185</v>
+        <v>481</v>
       </c>
       <c r="E115" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F115">
-        <v>22636655</v>
+        <v>22636647</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>251</v>
+      </c>
+      <c r="B116" t="s">
+        <v>252</v>
+      </c>
+      <c r="C116" t="s">
+        <v>181</v>
+      </c>
+      <c r="D116" t="s">
+        <v>182</v>
+      </c>
+      <c r="E116" t="s">
         <v>254</v>
       </c>
-      <c r="B116" t="s">
-        <v>255</v>
-      </c>
-      <c r="C116" t="s">
-        <v>486</v>
-      </c>
-      <c r="D116" t="s">
-        <v>487</v>
-      </c>
-      <c r="E116" t="s">
-        <v>256</v>
-      </c>
       <c r="F116">
-        <v>22636651</v>
+        <v>22636655</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B117" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C117" t="s">
-        <v>267</v>
+        <v>482</v>
       </c>
       <c r="D117" t="s">
-        <v>268</v>
+        <v>483</v>
       </c>
       <c r="E117" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="F117">
-        <v>22636656</v>
+        <v>22636651</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C118" t="s">
-        <v>488</v>
+        <v>665</v>
       </c>
       <c r="D118" t="s">
-        <v>573</v>
+        <v>664</v>
       </c>
       <c r="E118" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="F118">
-        <v>22765926</v>
+        <v>22636646</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="B119" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C119" t="s">
-        <v>434</v>
+        <v>264</v>
       </c>
       <c r="D119" t="s">
-        <v>574</v>
+        <v>265</v>
       </c>
       <c r="E119" t="s">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="F119">
-        <v>22765920</v>
+        <v>22636656</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C120" t="s">
-        <v>240</v>
+        <v>484</v>
       </c>
       <c r="D120" t="s">
-        <v>241</v>
+        <v>566</v>
       </c>
       <c r="E120" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F120">
-        <v>22765905</v>
+        <v>22765926</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B121" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C121" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D121" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="E121" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="F121">
-        <v>22765917</v>
+        <v>22765920</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B122" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C122" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D122" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="E122" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="F122">
-        <v>22765910</v>
+        <v>22765905</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B123" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C123" t="s">
-        <v>237</v>
+        <v>441</v>
       </c>
       <c r="D123" t="s">
-        <v>238</v>
+        <v>525</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="F123">
-        <v>22765909</v>
+        <v>22765917</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B124" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C124" t="s">
-        <v>406</v>
+        <v>247</v>
       </c>
       <c r="D124" t="s">
-        <v>547</v>
+        <v>248</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F124">
-        <v>22765906</v>
+        <v>22765910</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>232</v>
+      </c>
+      <c r="B125" t="s">
+        <v>233</v>
+      </c>
+      <c r="C125" t="s">
+        <v>234</v>
+      </c>
+      <c r="D125" t="s">
         <v>235</v>
       </c>
-      <c r="B125" t="s">
+      <c r="E125" t="s">
         <v>236</v>
       </c>
-      <c r="C125" t="s">
-        <v>409</v>
-      </c>
-      <c r="D125" t="s">
-        <v>575</v>
-      </c>
-      <c r="E125" t="s">
-        <v>311</v>
-      </c>
       <c r="F125">
-        <v>22765921</v>
+        <v>22765909</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B126" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C126" t="s">
-        <v>581</v>
+        <v>403</v>
       </c>
       <c r="D126" t="s">
-        <v>576</v>
+        <v>541</v>
       </c>
       <c r="E126" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="F126">
-        <v>22765913</v>
+        <v>22765906</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B127" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C127" t="s">
-        <v>244</v>
+        <v>406</v>
       </c>
       <c r="D127" t="s">
-        <v>245</v>
+        <v>568</v>
       </c>
       <c r="E127" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F127">
-        <v>22765912</v>
+        <v>22765921</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B128" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C128" t="s">
-        <v>435</v>
+        <v>574</v>
       </c>
       <c r="D128" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E128" t="s">
-        <v>246</v>
+        <v>170</v>
       </c>
       <c r="F128">
-        <v>22765916</v>
+        <v>22765913</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B129" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C129" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D129" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="F129">
-        <v>22765915</v>
+        <v>22765912</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B130" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C130" t="s">
-        <v>477</v>
+        <v>431</v>
       </c>
       <c r="D130" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="E130" t="s">
-        <v>668</v>
+        <v>243</v>
       </c>
       <c r="F130">
-        <v>22765911</v>
+        <v>22765916</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="B131" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C131" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="D131" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="E131" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="F131">
-        <v>22636622</v>
+        <v>22765915</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="B132" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C132" t="s">
-        <v>222</v>
+        <v>473</v>
       </c>
       <c r="D132" t="s">
-        <v>223</v>
+        <v>571</v>
       </c>
       <c r="E132" t="s">
-        <v>224</v>
+        <v>661</v>
       </c>
       <c r="F132">
-        <v>22636624</v>
+        <v>22765911</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B133" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C133" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D133" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E133" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F133">
-        <v>22636633</v>
+        <v>22636622</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B134" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C134" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D134" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E134" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="F134">
-        <v>22636627</v>
+        <v>22636624</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B135" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C135" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D135" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E135" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F135">
-        <v>22636636</v>
+        <v>22636633</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B136" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C136" t="s">
-        <v>489</v>
+        <v>229</v>
       </c>
       <c r="D136" t="s">
-        <v>572</v>
+        <v>230</v>
       </c>
       <c r="E136" t="s">
-        <v>604</v>
+        <v>231</v>
       </c>
       <c r="F136">
-        <v>22636631</v>
+        <v>22636627</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>213</v>
+      </c>
+      <c r="B137" t="s">
+        <v>214</v>
+      </c>
+      <c r="C137" t="s">
+        <v>215</v>
+      </c>
+      <c r="D137" t="s">
         <v>216</v>
       </c>
-      <c r="B137" t="s">
+      <c r="E137" t="s">
         <v>217</v>
       </c>
-      <c r="C137" t="s">
-        <v>423</v>
-      </c>
-      <c r="D137" t="s">
-        <v>424</v>
-      </c>
-      <c r="E137" t="s">
-        <v>225</v>
-      </c>
       <c r="F137">
-        <v>22636637</v>
+        <v>22636636</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B138" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C138" t="s">
-        <v>88</v>
+        <v>485</v>
       </c>
       <c r="D138" t="s">
-        <v>89</v>
+        <v>565</v>
       </c>
       <c r="E138" t="s">
-        <v>221</v>
+        <v>597</v>
       </c>
       <c r="F138">
-        <v>22636634</v>
+        <v>22636631</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B139" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C139" t="s">
-        <v>209</v>
+        <v>420</v>
       </c>
       <c r="D139" t="s">
-        <v>210</v>
+        <v>421</v>
       </c>
       <c r="E139" t="s">
-        <v>610</v>
+        <v>222</v>
       </c>
       <c r="F139">
-        <v>22636613</v>
+        <v>22636637</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B140" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C140" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="D140" t="s">
-        <v>204</v>
+        <v>88</v>
       </c>
       <c r="E140" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="F140">
-        <v>22636608</v>
+        <v>22636634</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B141" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C141" t="s">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="D141" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="E141" t="s">
-        <v>215</v>
+        <v>603</v>
       </c>
       <c r="F141">
-        <v>22636617</v>
+        <v>22636613</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B142" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C142" t="s">
         <v>200</v>
@@ -5346,247 +5373,247 @@
         <v>202</v>
       </c>
       <c r="F142">
-        <v>22636611</v>
+        <v>22636608</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B143" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C143" t="s">
+        <v>105</v>
+      </c>
+      <c r="D143" t="s">
+        <v>106</v>
+      </c>
+      <c r="E143" t="s">
         <v>212</v>
       </c>
-      <c r="D143" t="s">
-        <v>213</v>
-      </c>
-      <c r="E143" t="s">
-        <v>214</v>
-      </c>
       <c r="F143">
-        <v>22636619</v>
+        <v>22636617</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>195</v>
+      </c>
+      <c r="B144" t="s">
+        <v>196</v>
+      </c>
+      <c r="C144" t="s">
+        <v>197</v>
+      </c>
+      <c r="D144" t="s">
         <v>198</v>
       </c>
-      <c r="B144" t="s">
+      <c r="E144" t="s">
         <v>199</v>
       </c>
-      <c r="C144" t="s">
-        <v>430</v>
-      </c>
-      <c r="D144" t="s">
-        <v>431</v>
-      </c>
-      <c r="E144" t="s">
-        <v>211</v>
-      </c>
       <c r="F144">
-        <v>22636615</v>
+        <v>22636611</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B145" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C145" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D145" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E145" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F145">
-        <v>22636620</v>
+        <v>22636619</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B146" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C146" t="s">
-        <v>184</v>
+        <v>426</v>
       </c>
       <c r="D146" t="s">
-        <v>568</v>
+        <v>427</v>
       </c>
       <c r="E146" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="F146">
-        <v>851008</v>
+        <v>22636615</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B147" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C147" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D147" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="E147" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F147">
-        <v>851012</v>
+        <v>22636620</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B148" t="s">
+        <v>178</v>
+      </c>
+      <c r="C148" t="s">
         <v>181</v>
       </c>
-      <c r="C148" t="s">
-        <v>422</v>
-      </c>
       <c r="D148" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="E148" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F148">
-        <v>851016</v>
+        <v>851008</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B149" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C149" t="s">
-        <v>423</v>
+        <v>188</v>
       </c>
       <c r="D149" t="s">
-        <v>570</v>
+        <v>189</v>
       </c>
       <c r="E149" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F149">
-        <v>851019</v>
+        <v>851012</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B150" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C150" t="s">
-        <v>583</v>
+        <v>419</v>
       </c>
       <c r="D150" t="s">
-        <v>196</v>
+        <v>562</v>
       </c>
       <c r="E150" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F150">
-        <v>851022</v>
+        <v>851016</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B151" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C151" t="s">
         <v>420</v>
       </c>
       <c r="D151" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="E151" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="F151">
-        <v>851034</v>
+        <v>851019</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B152" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C152" t="s">
+        <v>576</v>
+      </c>
+      <c r="D152" t="s">
+        <v>193</v>
+      </c>
+      <c r="E152" t="s">
         <v>194</v>
       </c>
-      <c r="D152" t="s">
-        <v>195</v>
-      </c>
-      <c r="E152" t="s">
-        <v>104</v>
-      </c>
       <c r="F152">
-        <v>851037</v>
+        <v>851022</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B153" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C153" t="s">
-        <v>182</v>
+        <v>417</v>
       </c>
       <c r="D153" t="s">
-        <v>182</v>
+        <v>564</v>
       </c>
       <c r="E153" t="s">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="F153">
-        <v>851041</v>
+        <v>851034</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B154" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C154" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D154" t="s">
-        <v>552</v>
+        <v>192</v>
       </c>
       <c r="E154" t="s">
-        <v>623</v>
+        <v>103</v>
       </c>
       <c r="F154">
-        <v>851044</v>
+        <v>851037</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -5597,16 +5624,16 @@
         <v>178</v>
       </c>
       <c r="C155" t="s">
-        <v>490</v>
+        <v>179</v>
       </c>
       <c r="D155" t="s">
-        <v>491</v>
+        <v>179</v>
       </c>
       <c r="E155" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F155">
-        <v>29715513</v>
+        <v>851041</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -5617,536 +5644,536 @@
         <v>178</v>
       </c>
       <c r="C156" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="D156" t="s">
-        <v>154</v>
+        <v>546</v>
       </c>
       <c r="E156" t="s">
-        <v>20</v>
+        <v>616</v>
       </c>
       <c r="F156">
-        <v>29715515</v>
+        <v>851044</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C157" t="s">
-        <v>171</v>
+        <v>486</v>
       </c>
       <c r="D157" t="s">
-        <v>172</v>
+        <v>487</v>
       </c>
       <c r="E157" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F157">
-        <v>509005</v>
+        <v>29715513</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B158" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C158" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D158" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="E158" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="F158">
-        <v>509011</v>
+        <v>29715515</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B159" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C159" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D159" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E159" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F159">
-        <v>509019</v>
+        <v>509005</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B160" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C160" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D160" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E160" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F160">
-        <v>509030</v>
+        <v>509011</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B161" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C161" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D161" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E161" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F161">
-        <v>509034</v>
+        <v>509019</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B162" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C162" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="D162" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="E162" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F162">
-        <v>509040</v>
+        <v>509030</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B163" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C163" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D163" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E163" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F163">
-        <v>509047</v>
+        <v>509034</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B164" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C164" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="D164" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="E164" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F164">
-        <v>509053</v>
+        <v>509040</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B165" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C165" t="s">
-        <v>470</v>
+        <v>155</v>
       </c>
       <c r="D165" t="s">
-        <v>565</v>
+        <v>156</v>
       </c>
       <c r="E165" t="s">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="F165">
-        <v>27582770</v>
+        <v>509047</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>152</v>
+      </c>
+      <c r="B166" t="s">
+        <v>153</v>
+      </c>
+      <c r="C166" t="s">
+        <v>148</v>
+      </c>
+      <c r="D166" t="s">
         <v>149</v>
       </c>
-      <c r="B166" t="s">
-        <v>150</v>
-      </c>
-      <c r="C166" t="s">
-        <v>153</v>
-      </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>154</v>
       </c>
-      <c r="E166" t="s">
-        <v>104</v>
-      </c>
       <c r="F166">
-        <v>27582772</v>
+        <v>509053</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B167" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C167" t="s">
-        <v>106</v>
+        <v>466</v>
       </c>
       <c r="D167" t="s">
-        <v>107</v>
+        <v>558</v>
       </c>
       <c r="E167" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="F167">
-        <v>27582774</v>
+        <v>27582770</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B168" t="s">
+        <v>147</v>
+      </c>
+      <c r="C168" t="s">
         <v>150</v>
       </c>
-      <c r="C168" t="s">
-        <v>430</v>
-      </c>
       <c r="D168" t="s">
-        <v>560</v>
+        <v>151</v>
       </c>
       <c r="E168" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F168">
-        <v>27582776</v>
+        <v>27582772</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B169" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C169" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D169" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E169" t="s">
-        <v>101</v>
+        <v>666</v>
       </c>
       <c r="F169">
-        <v>27582778</v>
+        <v>27582774</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B170" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C170" t="s">
-        <v>158</v>
+        <v>426</v>
       </c>
       <c r="D170" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="E170" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F170">
-        <v>27582780</v>
+        <v>27582776</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B171" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C171" t="s">
-        <v>426</v>
+        <v>98</v>
       </c>
       <c r="D171" t="s">
-        <v>427</v>
+        <v>99</v>
       </c>
       <c r="E171" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F171">
-        <v>27582782</v>
+        <v>27582778</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B172" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C172" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="D172" t="s">
-        <v>89</v>
+        <v>559</v>
       </c>
       <c r="E172" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F172">
-        <v>27582784</v>
+        <v>27582780</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B173" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C173" t="s">
-        <v>151</v>
+        <v>422</v>
       </c>
       <c r="D173" t="s">
-        <v>567</v>
+        <v>423</v>
       </c>
       <c r="E173" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F173">
-        <v>27582788</v>
+        <v>27582782</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B174" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C174" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D174" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E174" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F174">
-        <v>27582792</v>
+        <v>27582784</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B175" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C175" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="D175" t="s">
-        <v>93</v>
+        <v>560</v>
       </c>
       <c r="E175" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F175">
-        <v>27582796</v>
+        <v>27582788</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B176" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C176" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="D176" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="E176" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="F176">
-        <v>28219110</v>
+        <v>27582792</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B177" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C177" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="D177" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="E177" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="F177">
-        <v>28219112</v>
+        <v>27582796</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B178" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C178" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D178" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E178" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F178">
-        <v>28219114</v>
+        <v>28219110</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>128</v>
+      </c>
+      <c r="B179" t="s">
+        <v>129</v>
+      </c>
+      <c r="C179" t="s">
         <v>130</v>
       </c>
-      <c r="B179" t="s">
+      <c r="D179" t="s">
         <v>131</v>
       </c>
-      <c r="C179" t="s">
-        <v>141</v>
-      </c>
-      <c r="D179" t="s">
-        <v>142</v>
-      </c>
       <c r="E179" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F179">
-        <v>28219116</v>
+        <v>28219112</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B180" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C180" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D180" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E180" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F180">
-        <v>28219118</v>
+        <v>28219114</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B181" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C181" t="s">
-        <v>428</v>
+        <v>139</v>
       </c>
       <c r="D181" t="s">
-        <v>429</v>
+        <v>140</v>
       </c>
       <c r="E181" t="s">
-        <v>148</v>
+        <v>667</v>
       </c>
       <c r="F181">
-        <v>28219120</v>
+        <v>28219116</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B182" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C182" t="s">
-        <v>492</v>
+        <v>133</v>
       </c>
       <c r="D182" t="s">
-        <v>493</v>
+        <v>134</v>
       </c>
       <c r="E182" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F182">
-        <v>28219122</v>
+        <v>28219118</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -6157,16 +6184,16 @@
         <v>129</v>
       </c>
       <c r="C183" t="s">
+        <v>424</v>
+      </c>
+      <c r="D183" t="s">
         <v>425</v>
       </c>
-      <c r="D183" t="s">
-        <v>496</v>
-      </c>
       <c r="E183" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="F183">
-        <v>34002876</v>
+        <v>28219120</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -6177,436 +6204,436 @@
         <v>129</v>
       </c>
       <c r="C184" t="s">
-        <v>102</v>
+        <v>488</v>
       </c>
       <c r="D184" t="s">
-        <v>103</v>
+        <v>489</v>
       </c>
       <c r="E184" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F184">
-        <v>34002877</v>
+        <v>28219122</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B185" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C185" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D185" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E185" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F185">
-        <v>34002878</v>
+        <v>34002877</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B186" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C186" t="s">
-        <v>430</v>
+        <v>98</v>
       </c>
       <c r="D186" t="s">
-        <v>559</v>
+        <v>99</v>
       </c>
       <c r="E186" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F186">
-        <v>34002879</v>
+        <v>34002880</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B187" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C187" t="s">
-        <v>99</v>
+        <v>422</v>
       </c>
       <c r="D187" t="s">
-        <v>100</v>
+        <v>492</v>
       </c>
       <c r="E187" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F187">
-        <v>34002880</v>
+        <v>34002882</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B188" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C188" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="D188" t="s">
-        <v>497</v>
+        <v>92</v>
       </c>
       <c r="E188" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F188">
-        <v>34002881</v>
+        <v>34002885</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B189" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C189" t="s">
-        <v>426</v>
+        <v>575</v>
       </c>
       <c r="D189" t="s">
-        <v>498</v>
+        <v>96</v>
       </c>
       <c r="E189" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F189">
-        <v>34002882</v>
+        <v>34002886</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B190" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C190" t="s">
-        <v>88</v>
+        <v>424</v>
       </c>
       <c r="D190" t="s">
-        <v>89</v>
+        <v>554</v>
       </c>
       <c r="E190" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F190">
-        <v>34002883</v>
+        <v>34002887</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B191" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C191" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D191" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E191" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F191">
-        <v>34002884</v>
+        <v>34002871</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B192" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C192" t="s">
-        <v>92</v>
+        <v>428</v>
       </c>
       <c r="D192" t="s">
-        <v>93</v>
+        <v>555</v>
       </c>
       <c r="E192" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="F192">
-        <v>34002885</v>
+        <v>34002873</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B193" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C193" t="s">
-        <v>582</v>
+        <v>120</v>
       </c>
       <c r="D193" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="E193" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="F193">
-        <v>34002886</v>
+        <v>33991784</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B194" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C194" t="s">
-        <v>428</v>
+        <v>117</v>
       </c>
       <c r="D194" t="s">
-        <v>561</v>
+        <v>118</v>
       </c>
       <c r="E194" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="F194">
-        <v>34002887</v>
+        <v>33991807</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B195" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C195" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D195" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E195" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="F195">
-        <v>34002871</v>
+        <v>33991810</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B196" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C196" t="s">
-        <v>432</v>
+        <v>123</v>
       </c>
       <c r="D196" t="s">
-        <v>562</v>
+        <v>124</v>
       </c>
       <c r="E196" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="F196">
-        <v>34002873</v>
+        <v>33991812</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B197" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C197" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D197" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E197" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F197">
-        <v>33991784</v>
+        <v>34003789</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>107</v>
+      </c>
+      <c r="B198" t="s">
+        <v>108</v>
+      </c>
+      <c r="C198" t="s">
+        <v>490</v>
+      </c>
+      <c r="D198" t="s">
+        <v>491</v>
+      </c>
+      <c r="E198" t="s">
         <v>109</v>
       </c>
-      <c r="B198" t="s">
-        <v>110</v>
-      </c>
-      <c r="C198" t="s">
-        <v>119</v>
-      </c>
-      <c r="D198" t="s">
-        <v>120</v>
-      </c>
-      <c r="E198" t="s">
-        <v>121</v>
-      </c>
       <c r="F198">
-        <v>33991807</v>
+        <v>34003791</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B199" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C199" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D199" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="E199" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F199">
-        <v>33991810</v>
+        <v>34003794</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B200" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C200" t="s">
-        <v>125</v>
+        <v>429</v>
       </c>
       <c r="D200" t="s">
-        <v>126</v>
+        <v>556</v>
       </c>
       <c r="E200" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="F200">
-        <v>33991812</v>
+        <v>561307021</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B201" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="C201" t="s">
-        <v>116</v>
+        <v>432</v>
       </c>
       <c r="D201" t="s">
-        <v>117</v>
+        <v>557</v>
       </c>
       <c r="E201" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F201">
-        <v>34003789</v>
+        <v>561307037</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="B202" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="C202" t="s">
-        <v>494</v>
+        <v>57</v>
       </c>
       <c r="D202" t="s">
-        <v>495</v>
+        <v>58</v>
       </c>
       <c r="E202" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="F202">
-        <v>34003791</v>
+        <v>477215246</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="B203" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="C203" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="D203" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="E203" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="F203">
-        <v>34003794</v>
+        <v>477215248</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B204" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C204" t="s">
-        <v>433</v>
+        <v>65</v>
       </c>
       <c r="D204" t="s">
-        <v>563</v>
+        <v>66</v>
       </c>
       <c r="E204" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F204">
-        <v>561307021</v>
+        <v>477215250</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B205" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C205" t="s">
-        <v>436</v>
+        <v>71</v>
       </c>
       <c r="D205" t="s">
-        <v>564</v>
+        <v>72</v>
       </c>
       <c r="E205" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="F205">
-        <v>561307037</v>
+        <v>497463990</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6617,16 +6644,16 @@
         <v>56</v>
       </c>
       <c r="C206" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D206" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E206" t="s">
-        <v>59</v>
+        <v>668</v>
       </c>
       <c r="F206">
-        <v>477215246</v>
+        <v>497463992</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -6637,16 +6664,16 @@
         <v>56</v>
       </c>
       <c r="C207" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D207" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E207" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F207">
-        <v>477215248</v>
+        <v>497463994</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -6657,176 +6684,176 @@
         <v>56</v>
       </c>
       <c r="C208" t="s">
-        <v>66</v>
+        <v>493</v>
       </c>
       <c r="D208" t="s">
-        <v>67</v>
+        <v>552</v>
       </c>
       <c r="E208" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F208">
-        <v>477215250</v>
+        <v>497463996</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B209" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C209" t="s">
-        <v>72</v>
-      </c>
-      <c r="D209" t="s">
-        <v>73</v>
+        <v>653</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>654</v>
       </c>
       <c r="E209" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F209">
-        <v>497463990</v>
+        <v>1300452648</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B210" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C210" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D210" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E210" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F210">
-        <v>497463992</v>
+        <v>1300423634</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B211" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C211" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D211" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E211" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F211">
-        <v>497463994</v>
+        <v>1300452649</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B212" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C212" t="s">
-        <v>499</v>
+        <v>53</v>
       </c>
       <c r="D212" t="s">
-        <v>558</v>
+        <v>54</v>
       </c>
       <c r="E212" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F212">
-        <v>497463996</v>
+        <v>1300595620</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B213" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C213" t="s">
-        <v>660</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>661</v>
+        <v>36</v>
+      </c>
+      <c r="D213" t="s">
+        <v>37</v>
       </c>
       <c r="E213" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F213">
-        <v>1300452648</v>
+        <v>1381562764</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B214" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C214" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D214" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E214" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F214">
-        <v>1300423634</v>
+        <v>1381564337</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B215" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C215" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D215" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E215" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F215">
-        <v>1300452649</v>
+        <v>1381562765</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B216" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C216" t="s">
-        <v>53</v>
+        <v>494</v>
       </c>
       <c r="D216" t="s">
-        <v>54</v>
+        <v>495</v>
       </c>
       <c r="E216" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F216">
-        <v>1300595620</v>
+        <v>1384324154</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -6837,16 +6864,16 @@
         <v>30</v>
       </c>
       <c r="C217" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D217" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E217" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F217">
-        <v>1381562764</v>
+        <v>1384324156</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -6857,16 +6884,16 @@
         <v>30</v>
       </c>
       <c r="C218" t="s">
-        <v>33</v>
+        <v>496</v>
       </c>
       <c r="D218" t="s">
-        <v>34</v>
+        <v>497</v>
       </c>
       <c r="E218" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F218">
-        <v>1381564337</v>
+        <v>1384318412</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -6877,536 +6904,536 @@
         <v>30</v>
       </c>
       <c r="C219" t="s">
-        <v>39</v>
+        <v>498</v>
       </c>
       <c r="D219" t="s">
-        <v>40</v>
+        <v>499</v>
       </c>
       <c r="E219" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F219">
-        <v>1381562765</v>
+        <v>1384324244</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>29</v>
+        <v>516</v>
       </c>
       <c r="B220" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
-        <v>500</v>
+        <v>14</v>
       </c>
       <c r="D220" t="s">
-        <v>501</v>
+        <v>15</v>
       </c>
       <c r="E220" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F220">
-        <v>1384324154</v>
+        <v>30854133</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>29</v>
+        <v>516</v>
       </c>
       <c r="B221" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D221" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E221" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F221">
-        <v>1384324156</v>
+        <v>30854134</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>29</v>
+        <v>516</v>
       </c>
       <c r="B222" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
-        <v>502</v>
+        <v>10</v>
       </c>
       <c r="D222" t="s">
-        <v>503</v>
+        <v>11</v>
       </c>
       <c r="E222" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F222">
-        <v>1384318412</v>
+        <v>30854137</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>29</v>
+        <v>516</v>
       </c>
       <c r="B223" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D223" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E223" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F223">
-        <v>1384324244</v>
+        <v>30854138</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D224" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E224" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F224">
-        <v>30854133</v>
+        <v>30854142</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
       </c>
       <c r="C225" t="s">
-        <v>17</v>
+        <v>502</v>
       </c>
       <c r="D225" t="s">
-        <v>18</v>
+        <v>503</v>
       </c>
       <c r="E225" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F225">
-        <v>30854134</v>
+        <v>30854146</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
       </c>
       <c r="C226" t="s">
-        <v>10</v>
+        <v>417</v>
       </c>
       <c r="D226" t="s">
-        <v>11</v>
+        <v>418</v>
       </c>
       <c r="E226" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F226">
-        <v>30854137</v>
+        <v>30854151</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C227" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D227" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E227" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F227">
-        <v>30854138</v>
+        <v>30854182</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C228" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D228" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E228" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F228">
-        <v>30854142</v>
+        <v>30854183</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C229" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D229" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E229" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F229">
-        <v>30854146</v>
+        <v>30854184</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C230" t="s">
-        <v>420</v>
+        <v>508</v>
       </c>
       <c r="D230" t="s">
-        <v>421</v>
+        <v>508</v>
       </c>
       <c r="E230" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F230">
-        <v>30854151</v>
+        <v>30854185</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B231" t="s">
         <v>21</v>
       </c>
       <c r="C231" t="s">
-        <v>510</v>
+        <v>25</v>
       </c>
       <c r="D231" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="E231" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F231">
-        <v>30854182</v>
+        <v>30854188</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B232" t="s">
         <v>21</v>
       </c>
       <c r="C232" t="s">
-        <v>24</v>
+        <v>577</v>
       </c>
       <c r="D232" t="s">
-        <v>24</v>
+        <v>577</v>
       </c>
       <c r="E232" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F232">
-        <v>30854183</v>
+        <v>30854186</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B233" t="s">
         <v>21</v>
       </c>
       <c r="C233" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D233" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E233" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F233">
-        <v>30854184</v>
+        <v>30854187</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B234" t="s">
         <v>21</v>
       </c>
       <c r="C234" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D234" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E234" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F234">
-        <v>30854185</v>
+        <v>30854189</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B235" t="s">
         <v>21</v>
       </c>
       <c r="C235" t="s">
-        <v>25</v>
+        <v>513</v>
       </c>
       <c r="D235" t="s">
-        <v>26</v>
+        <v>514</v>
       </c>
       <c r="E235" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F235">
-        <v>30854188</v>
+        <v>30854190</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="B236" t="s">
-        <v>21</v>
+        <v>585</v>
       </c>
       <c r="C236" t="s">
-        <v>584</v>
+        <v>639</v>
       </c>
       <c r="D236" t="s">
-        <v>584</v>
+        <v>638</v>
       </c>
       <c r="E236" t="s">
-        <v>8</v>
+        <v>591</v>
       </c>
       <c r="F236">
-        <v>30854186</v>
+        <v>29715584</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="B237" t="s">
-        <v>21</v>
+        <v>585</v>
       </c>
       <c r="C237" t="s">
-        <v>515</v>
+        <v>592</v>
       </c>
       <c r="D237" t="s">
-        <v>516</v>
+        <v>586</v>
       </c>
       <c r="E237" t="s">
-        <v>23</v>
-      </c>
-      <c r="F237">
-        <v>30854187</v>
+        <v>591</v>
+      </c>
+      <c r="F237" s="1">
+        <v>29715585</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>522</v>
+        <v>584</v>
       </c>
       <c r="B238" t="s">
-        <v>21</v>
+        <v>585</v>
       </c>
       <c r="C238" t="s">
-        <v>517</v>
+        <v>593</v>
       </c>
       <c r="D238" t="s">
-        <v>518</v>
+        <v>587</v>
       </c>
       <c r="E238" t="s">
-        <v>28</v>
-      </c>
-      <c r="F238">
-        <v>30854189</v>
+        <v>591</v>
+      </c>
+      <c r="F238" s="1">
+        <v>29715586</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>522</v>
+        <v>637</v>
       </c>
       <c r="B239" t="s">
-        <v>21</v>
+        <v>585</v>
       </c>
       <c r="C239" t="s">
-        <v>519</v>
+        <v>594</v>
       </c>
       <c r="D239" t="s">
-        <v>520</v>
+        <v>588</v>
       </c>
       <c r="E239" t="s">
-        <v>27</v>
+        <v>591</v>
       </c>
       <c r="F239">
-        <v>30854190</v>
+        <v>29715587</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>637</v>
+      </c>
+      <c r="B240" t="s">
+        <v>585</v>
+      </c>
+      <c r="C240" t="s">
+        <v>595</v>
+      </c>
+      <c r="D240" t="s">
+        <v>589</v>
+      </c>
+      <c r="E240" t="s">
         <v>591</v>
       </c>
-      <c r="B240" t="s">
-        <v>592</v>
-      </c>
-      <c r="C240" t="s">
-        <v>646</v>
-      </c>
-      <c r="D240" t="s">
-        <v>645</v>
-      </c>
-      <c r="E240" t="s">
-        <v>598</v>
-      </c>
       <c r="F240">
-        <v>29715584</v>
+        <v>29715588</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>591</v>
+        <v>637</v>
       </c>
       <c r="B241" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C241" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="D241" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E241" t="s">
-        <v>598</v>
-      </c>
-      <c r="F241" s="1">
-        <v>29715585</v>
+        <v>596</v>
+      </c>
+      <c r="F241">
+        <v>29715589</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B242" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="C242" t="s">
+        <v>601</v>
+      </c>
+      <c r="D242" t="s">
         <v>600</v>
       </c>
-      <c r="D242" t="s">
-        <v>594</v>
-      </c>
       <c r="E242" t="s">
-        <v>598</v>
-      </c>
-      <c r="F242" s="1">
-        <v>29715586</v>
+        <v>602</v>
+      </c>
+      <c r="F242">
+        <v>29710956</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>644</v>
+        <v>605</v>
       </c>
       <c r="B243" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="C243" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="D243" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="E243" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="F243">
-        <v>29715587</v>
+        <v>468513480</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>644</v>
+        <v>605</v>
       </c>
       <c r="B244" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="C244" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="D244" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="E244" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="F244">
-        <v>29715588</v>
+        <v>29710940</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>644</v>
+        <v>605</v>
       </c>
       <c r="B245" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="C245" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="D245" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="E245" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="F245">
-        <v>29715589</v>
+        <v>29710941</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -7414,299 +7441,239 @@
         <v>605</v>
       </c>
       <c r="B246" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="C246" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="D246" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="E246" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="F246">
-        <v>29710956</v>
+        <v>29710942</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="B247" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="C247" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="D247" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="E247" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="F247">
-        <v>468513480</v>
+        <v>29710959</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="B248" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C248" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="D248" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="E248" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="F248">
-        <v>29710940</v>
+        <v>22765949</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="B249" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="C249" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="D249" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="E249" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="F249">
-        <v>29710941</v>
+        <v>22766029</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="B250" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="C250" t="s">
-        <v>621</v>
+        <v>656</v>
       </c>
       <c r="D250" t="s">
-        <v>620</v>
+        <v>657</v>
       </c>
       <c r="E250" t="s">
-        <v>627</v>
+        <v>660</v>
       </c>
       <c r="F250">
-        <v>29710942</v>
+        <v>22766028</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B251" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C251" t="s">
-        <v>633</v>
+        <v>659</v>
       </c>
       <c r="D251" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="E251" t="s">
-        <v>634</v>
+        <v>660</v>
       </c>
       <c r="F251">
-        <v>29710959</v>
+        <v>22766019</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B252" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C252" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="D252" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="E252" t="s">
-        <v>639</v>
-      </c>
-      <c r="F252">
-        <v>22765949</v>
+        <v>652</v>
+      </c>
+      <c r="F252" s="1">
+        <v>28941725</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B253" t="s">
-        <v>640</v>
-      </c>
-      <c r="C253" t="s">
-        <v>642</v>
+        <v>641</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>645</v>
       </c>
       <c r="D253" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="E253" t="s">
-        <v>643</v>
-      </c>
-      <c r="F253">
-        <v>22766029</v>
+        <v>652</v>
+      </c>
+      <c r="F253" s="1">
+        <v>28941726</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B254" t="s">
-        <v>640</v>
-      </c>
-      <c r="C254" t="s">
-        <v>663</v>
+        <v>641</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>647</v>
       </c>
       <c r="D254" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="E254" t="s">
-        <v>667</v>
-      </c>
-      <c r="F254">
-        <v>22766028</v>
+        <v>652</v>
+      </c>
+      <c r="F254" s="1">
+        <v>28941727</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B255" t="s">
-        <v>640</v>
-      </c>
-      <c r="C255" t="s">
-        <v>666</v>
+        <v>641</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>649</v>
       </c>
       <c r="D255" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="E255" t="s">
-        <v>667</v>
-      </c>
-      <c r="F255">
-        <v>22766019</v>
+        <v>652</v>
+      </c>
+      <c r="F255" s="1">
+        <v>28941728</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B256" t="s">
-        <v>648</v>
-      </c>
-      <c r="C256" t="s">
-        <v>649</v>
+        <v>641</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>651</v>
       </c>
       <c r="D256" t="s">
         <v>650</v>
       </c>
       <c r="E256" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F256" s="1">
-        <v>28941725</v>
+        <v>28941729</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>647</v>
+        <v>669</v>
       </c>
       <c r="B257" t="s">
-        <v>648</v>
+        <v>670</v>
       </c>
       <c r="C257" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="E257" t="s">
-        <v>659</v>
+        <v>671</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>672</v>
       </c>
       <c r="F257" s="1">
-        <v>28941726</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>647</v>
-      </c>
-      <c r="B258" t="s">
-        <v>648</v>
-      </c>
-      <c r="C258" t="s">
-        <v>653</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="E258" t="s">
-        <v>659</v>
-      </c>
-      <c r="F258" s="1">
-        <v>28941727</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>647</v>
-      </c>
-      <c r="B259" t="s">
-        <v>648</v>
-      </c>
-      <c r="C259" t="s">
-        <v>655</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="E259" t="s">
-        <v>659</v>
-      </c>
-      <c r="F259" s="1">
-        <v>28941728</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>647</v>
-      </c>
-      <c r="B260" t="s">
-        <v>648</v>
-      </c>
-      <c r="C260" t="s">
-        <v>657</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="E260" t="s">
-        <v>659</v>
-      </c>
-      <c r="F260" s="1">
-        <v>28941729</v>
+        <v>29710961</v>
       </c>
     </row>
   </sheetData>
